--- a/api/media/products/YOGISSHOPDATABASE.xlsx
+++ b/api/media/products/YOGISSHOPDATABASE.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\projects\Ecommerce\api\media\products\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D1881FE-B9D3-4413-9711-425CF396CD95}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5465D687-0083-454B-BA7A-6196C125A9FE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1424,7 +1424,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1435,11 +1435,10 @@
     <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
@@ -1935,7 +1934,7 @@
   <dimension ref="A1:K235"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="106" zoomScaleNormal="106" workbookViewId="0">
-      <selection activeCell="E133" sqref="E133"/>
+      <selection activeCell="G21" sqref="G21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
@@ -2010,8 +2009,7 @@
       <c r="I2" s="3">
         <v>12</v>
       </c>
-      <c r="J2" s="11">
-        <f>H2/I2</f>
+      <c r="J2" s="10">
         <v>9.1666666666666661</v>
       </c>
       <c r="K2" s="4">
@@ -2044,8 +2042,7 @@
       <c r="I3" s="3">
         <v>20</v>
       </c>
-      <c r="J3" s="11">
-        <f>H3/I3</f>
+      <c r="J3" s="10">
         <v>5.5</v>
       </c>
       <c r="K3" s="4">
@@ -2078,8 +2075,7 @@
       <c r="I4" s="3">
         <v>10</v>
       </c>
-      <c r="J4" s="11">
-        <f>H4/I4</f>
+      <c r="J4" s="10">
         <v>39</v>
       </c>
       <c r="K4" s="4">
@@ -2112,8 +2108,7 @@
       <c r="I5" s="3">
         <v>10</v>
       </c>
-      <c r="J5" s="11">
-        <f>H5/I5</f>
+      <c r="J5" s="10">
         <v>39</v>
       </c>
       <c r="K5" s="4">
@@ -2146,8 +2141,7 @@
       <c r="I6" s="3">
         <v>10</v>
       </c>
-      <c r="J6" s="11">
-        <f>H6/I6</f>
+      <c r="J6" s="10">
         <v>39</v>
       </c>
       <c r="K6" s="4">
@@ -2168,10 +2162,10 @@
       <c r="E7" s="3" t="s">
         <v>392</v>
       </c>
-      <c r="F7" s="12" t="s">
+      <c r="F7" s="11" t="s">
         <v>224</v>
       </c>
-      <c r="G7" s="8" t="s">
+      <c r="G7" s="6" t="s">
         <v>165</v>
       </c>
       <c r="H7" s="4">
@@ -2180,8 +2174,7 @@
       <c r="I7" s="3">
         <v>10</v>
       </c>
-      <c r="J7" s="11">
-        <f>H7/I7</f>
+      <c r="J7" s="10">
         <v>24</v>
       </c>
       <c r="K7" s="4">
@@ -2202,10 +2195,10 @@
       <c r="E8" s="3" t="s">
         <v>392</v>
       </c>
-      <c r="F8" s="12" t="s">
+      <c r="F8" s="11" t="s">
         <v>225</v>
       </c>
-      <c r="G8" s="8" t="s">
+      <c r="G8" s="6" t="s">
         <v>219</v>
       </c>
       <c r="H8" s="4">
@@ -2214,8 +2207,7 @@
       <c r="I8" s="3">
         <v>10</v>
       </c>
-      <c r="J8" s="11">
-        <f>H8/I8</f>
+      <c r="J8" s="10">
         <v>46</v>
       </c>
       <c r="K8" s="4">
@@ -2236,8 +2228,8 @@
       <c r="E9" s="3" t="s">
         <v>369</v>
       </c>
-      <c r="F9" s="8"/>
-      <c r="G9" s="8" t="s">
+      <c r="F9" s="6"/>
+      <c r="G9" s="6" t="s">
         <v>113</v>
       </c>
       <c r="H9" s="4">
@@ -2246,9 +2238,8 @@
       <c r="I9" s="5">
         <v>12</v>
       </c>
-      <c r="J9" s="11">
-        <f>H9/I9</f>
-        <v>9.5833333333333339</v>
+      <c r="J9" s="10">
+        <v>9.5833333333333304</v>
       </c>
       <c r="K9" s="4">
         <v>15</v>
@@ -2268,18 +2259,15 @@
       <c r="E10" s="3" t="s">
         <v>369</v>
       </c>
-      <c r="F10" s="8"/>
-      <c r="G10" s="8" t="s">
+      <c r="F10" s="6"/>
+      <c r="G10" s="6" t="s">
         <v>114</v>
       </c>
       <c r="H10" s="4"/>
       <c r="I10" s="5">
         <v>12</v>
       </c>
-      <c r="J10" s="11">
-        <f>H10/I10</f>
-        <v>0</v>
-      </c>
+      <c r="J10" s="10"/>
       <c r="K10" s="4"/>
     </row>
     <row r="11" spans="1:11">
@@ -2296,8 +2284,8 @@
       <c r="E11" s="3" t="s">
         <v>370</v>
       </c>
-      <c r="F11" s="8"/>
-      <c r="G11" s="8" t="s">
+      <c r="F11" s="6"/>
+      <c r="G11" s="6" t="s">
         <v>113</v>
       </c>
       <c r="H11" s="4">
@@ -2306,9 +2294,8 @@
       <c r="I11" s="5">
         <v>12</v>
       </c>
-      <c r="J11" s="11">
-        <f>H11/I11</f>
-        <v>4.166666666666667</v>
+      <c r="J11" s="10">
+        <v>4.1666666666666696</v>
       </c>
       <c r="K11" s="4">
         <v>10</v>
@@ -2338,8 +2325,7 @@
       <c r="I12" s="5">
         <v>12</v>
       </c>
-      <c r="J12" s="11">
-        <f>H12/I12</f>
+      <c r="J12" s="10">
         <v>8.75</v>
       </c>
       <c r="K12" s="4">
@@ -2370,8 +2356,7 @@
       <c r="I13" s="5">
         <v>12</v>
       </c>
-      <c r="J13" s="11">
-        <f>H13/I13</f>
+      <c r="J13" s="10">
         <v>15.833333333333334</v>
       </c>
       <c r="K13" s="4">
@@ -2392,7 +2377,7 @@
       <c r="E14" s="3" t="s">
         <v>118</v>
       </c>
-      <c r="F14" s="10" t="s">
+      <c r="F14" s="9" t="s">
         <v>437</v>
       </c>
       <c r="G14" s="3" t="s">
@@ -2404,8 +2389,7 @@
       <c r="I14" s="5">
         <v>12</v>
       </c>
-      <c r="J14" s="11">
-        <f>H14/I14</f>
+      <c r="J14" s="10">
         <v>9.1666666666666661</v>
       </c>
       <c r="K14" s="4">
@@ -2438,8 +2422,7 @@
       <c r="I15" s="5">
         <v>6</v>
       </c>
-      <c r="J15" s="11">
-        <f>H15/I15</f>
+      <c r="J15" s="10">
         <v>18.333333333333332</v>
       </c>
       <c r="K15" s="4">
@@ -2457,13 +2440,13 @@
       <c r="D16" s="3" t="s">
         <v>172</v>
       </c>
-      <c r="E16" s="9" t="s">
+      <c r="E16" s="8" t="s">
         <v>394</v>
       </c>
       <c r="F16" s="7" t="s">
         <v>173</v>
       </c>
-      <c r="G16" s="13">
+      <c r="G16" s="12">
         <v>1</v>
       </c>
       <c r="H16" s="4">
@@ -2472,8 +2455,7 @@
       <c r="I16" s="3">
         <v>12</v>
       </c>
-      <c r="J16" s="11">
-        <f>H16/I16</f>
+      <c r="J16" s="10">
         <v>31.666666666666668</v>
       </c>
       <c r="K16" s="4">
@@ -2491,13 +2473,13 @@
       <c r="D17" s="3" t="s">
         <v>172</v>
       </c>
-      <c r="E17" s="9" t="s">
+      <c r="E17" s="8" t="s">
         <v>439</v>
       </c>
       <c r="F17" s="7" t="s">
         <v>174</v>
       </c>
-      <c r="G17" s="13">
+      <c r="G17" s="12">
         <v>1</v>
       </c>
       <c r="H17" s="4">
@@ -2506,8 +2488,7 @@
       <c r="I17" s="3">
         <v>12</v>
       </c>
-      <c r="J17" s="11">
-        <f>H17/I17</f>
+      <c r="J17" s="10">
         <v>31.666666666666668</v>
       </c>
       <c r="K17" s="4">
@@ -2540,8 +2521,7 @@
       <c r="I18" s="3">
         <v>60</v>
       </c>
-      <c r="J18" s="11">
-        <f>H18/I18</f>
+      <c r="J18" s="10">
         <v>4.166666666666667</v>
       </c>
       <c r="K18" s="4">
@@ -2574,8 +2554,7 @@
       <c r="I19" s="3">
         <v>60</v>
       </c>
-      <c r="J19" s="11">
-        <f>H19/I19</f>
+      <c r="J19" s="10">
         <v>4.166666666666667</v>
       </c>
       <c r="K19" s="4">
@@ -2608,8 +2587,7 @@
       <c r="I20" s="3">
         <v>60</v>
       </c>
-      <c r="J20" s="11">
-        <f>H20/I20</f>
+      <c r="J20" s="10">
         <v>4.166666666666667</v>
       </c>
       <c r="K20" s="4">
@@ -2640,8 +2618,7 @@
       <c r="I21" s="3">
         <v>24</v>
       </c>
-      <c r="J21" s="11">
-        <f>H21/I21</f>
+      <c r="J21" s="10">
         <v>26.041666666666668</v>
       </c>
       <c r="K21" s="4">
@@ -2656,10 +2633,10 @@
       <c r="C22" s="3" t="s">
         <v>172</v>
       </c>
-      <c r="D22" s="9" t="s">
+      <c r="D22" s="8" t="s">
         <v>358</v>
       </c>
-      <c r="E22" s="9" t="s">
+      <c r="E22" s="8" t="s">
         <v>358</v>
       </c>
       <c r="F22" s="7" t="s">
@@ -2672,8 +2649,7 @@
       <c r="I22" s="3">
         <v>24</v>
       </c>
-      <c r="J22" s="11">
-        <f>H22/I22</f>
+      <c r="J22" s="10">
         <v>52.708333333333336</v>
       </c>
       <c r="K22" s="4">
@@ -2706,8 +2682,7 @@
       <c r="I23" s="3">
         <v>36</v>
       </c>
-      <c r="J23" s="11">
-        <f>H23/I23</f>
+      <c r="J23" s="10">
         <v>15.833333333333334</v>
       </c>
       <c r="K23" s="4">
@@ -2722,10 +2697,10 @@
       <c r="C24" s="3" t="s">
         <v>143</v>
       </c>
-      <c r="D24" s="9" t="s">
+      <c r="D24" s="8" t="s">
         <v>143</v>
       </c>
-      <c r="E24" s="9" t="s">
+      <c r="E24" s="8" t="s">
         <v>143</v>
       </c>
       <c r="F24" s="3"/>
@@ -2736,8 +2711,7 @@
       <c r="I24" s="3">
         <v>50</v>
       </c>
-      <c r="J24" s="11">
-        <f>H24/I24</f>
+      <c r="J24" s="10">
         <v>8.8000000000000007</v>
       </c>
       <c r="K24" s="4">
@@ -2768,8 +2742,7 @@
       <c r="I25" s="3">
         <v>12</v>
       </c>
-      <c r="J25" s="11">
-        <f>H25/I25</f>
+      <c r="J25" s="10">
         <v>36.666666666666664</v>
       </c>
       <c r="K25" s="4">
@@ -2798,8 +2771,7 @@
       <c r="I26" s="3">
         <v>12</v>
       </c>
-      <c r="J26" s="11">
-        <f>H26/I26</f>
+      <c r="J26" s="10">
         <v>105.83333333333333</v>
       </c>
       <c r="K26" s="4">
@@ -2828,8 +2800,7 @@
       <c r="I27" s="5">
         <v>12</v>
       </c>
-      <c r="J27" s="11">
-        <f>H27/I27</f>
+      <c r="J27" s="10">
         <v>27.916666666666668</v>
       </c>
       <c r="K27" s="4">
@@ -2841,10 +2812,10 @@
       <c r="B28" s="3" t="s">
         <v>267</v>
       </c>
-      <c r="C28" s="9" t="s">
+      <c r="C28" s="8" t="s">
         <v>400</v>
       </c>
-      <c r="D28" s="9" t="s">
+      <c r="D28" s="8" t="s">
         <v>400</v>
       </c>
       <c r="E28" s="3" t="s">
@@ -2862,8 +2833,7 @@
       <c r="I28" s="3">
         <v>96</v>
       </c>
-      <c r="J28" s="11">
-        <f>H28/I28</f>
+      <c r="J28" s="10">
         <v>8.125</v>
       </c>
       <c r="K28" s="4">
@@ -2894,8 +2864,7 @@
       <c r="I29" s="5">
         <v>50</v>
       </c>
-      <c r="J29" s="11">
-        <f>H29/I29</f>
+      <c r="J29" s="10">
         <v>183</v>
       </c>
       <c r="K29" s="4">
@@ -2926,8 +2895,7 @@
       <c r="I30" s="5">
         <v>50</v>
       </c>
-      <c r="J30" s="11">
-        <f>H30/I30</f>
+      <c r="J30" s="10">
         <v>183</v>
       </c>
       <c r="K30" s="4">
@@ -2958,8 +2926,7 @@
       <c r="I31" s="5">
         <v>50</v>
       </c>
-      <c r="J31" s="11">
-        <f>H31/I31</f>
+      <c r="J31" s="10">
         <v>183</v>
       </c>
       <c r="K31" s="4">
@@ -2990,8 +2957,7 @@
       <c r="I32" s="5">
         <v>25</v>
       </c>
-      <c r="J32" s="11">
-        <f>H32/I32</f>
+      <c r="J32" s="10">
         <v>145</v>
       </c>
       <c r="K32" s="4">
@@ -3022,8 +2988,7 @@
       <c r="I33" s="5">
         <v>25</v>
       </c>
-      <c r="J33" s="11">
-        <f>H33/I33</f>
+      <c r="J33" s="10">
         <v>145</v>
       </c>
       <c r="K33" s="4">
@@ -3054,8 +3019,7 @@
       <c r="I34" s="5">
         <v>25</v>
       </c>
-      <c r="J34" s="11">
-        <f>H34/I34</f>
+      <c r="J34" s="10">
         <v>145</v>
       </c>
       <c r="K34" s="4">
@@ -3086,8 +3050,7 @@
       <c r="I35" s="5">
         <v>25</v>
       </c>
-      <c r="J35" s="11">
-        <f>H35/I35</f>
+      <c r="J35" s="10">
         <v>102</v>
       </c>
       <c r="K35" s="4">
@@ -3118,8 +3081,7 @@
       <c r="I36" s="5">
         <v>25</v>
       </c>
-      <c r="J36" s="11">
-        <f>H36/I36</f>
+      <c r="J36" s="10">
         <v>102</v>
       </c>
       <c r="K36" s="4">
@@ -3150,8 +3112,7 @@
       <c r="I37" s="5">
         <v>25</v>
       </c>
-      <c r="J37" s="11">
-        <f>H37/I37</f>
+      <c r="J37" s="10">
         <v>102</v>
       </c>
       <c r="K37" s="4">
@@ -3184,8 +3145,7 @@
       <c r="I38" s="3">
         <v>50</v>
       </c>
-      <c r="J38" s="11">
-        <f>H38/I38</f>
+      <c r="J38" s="10">
         <v>4.5999999999999996</v>
       </c>
       <c r="K38" s="4">
@@ -3218,8 +3178,7 @@
       <c r="I39" s="3">
         <v>50</v>
       </c>
-      <c r="J39" s="11">
-        <f>H39/I39</f>
+      <c r="J39" s="10">
         <v>4.5999999999999996</v>
       </c>
       <c r="K39" s="4">
@@ -3252,8 +3211,7 @@
       <c r="I40" s="3">
         <v>50</v>
       </c>
-      <c r="J40" s="11">
-        <f>H40/I40</f>
+      <c r="J40" s="10">
         <v>4.5999999999999996</v>
       </c>
       <c r="K40" s="4">
@@ -3286,8 +3244,7 @@
       <c r="I41" s="3">
         <v>50</v>
       </c>
-      <c r="J41" s="11">
-        <f>H41/I41</f>
+      <c r="J41" s="10">
         <v>4.5999999999999996</v>
       </c>
       <c r="K41" s="4">
@@ -3316,8 +3273,7 @@
       <c r="I42" s="3">
         <v>50</v>
       </c>
-      <c r="J42" s="11">
-        <f>H42/I42</f>
+      <c r="J42" s="10">
         <v>4.5999999999999996</v>
       </c>
       <c r="K42" s="4">
@@ -3350,8 +3306,7 @@
       <c r="I43" s="5">
         <v>20</v>
       </c>
-      <c r="J43" s="11">
-        <f>H43/I43</f>
+      <c r="J43" s="10">
         <v>8.5</v>
       </c>
       <c r="K43" s="4">
@@ -3382,8 +3337,7 @@
       <c r="I44" s="5">
         <v>20</v>
       </c>
-      <c r="J44" s="11">
-        <f>H44/I44</f>
+      <c r="J44" s="10">
         <v>13</v>
       </c>
       <c r="K44" s="4">
@@ -3416,8 +3370,7 @@
       <c r="I45" s="5">
         <v>20</v>
       </c>
-      <c r="J45" s="11">
-        <f>H45/I45</f>
+      <c r="J45" s="10">
         <v>17.5</v>
       </c>
       <c r="K45" s="4">
@@ -3450,8 +3403,7 @@
       <c r="I46" s="5">
         <v>20</v>
       </c>
-      <c r="J46" s="11">
-        <f>H46/I46</f>
+      <c r="J46" s="10">
         <v>8.5</v>
       </c>
       <c r="K46" s="4">
@@ -3484,8 +3436,7 @@
       <c r="I47" s="5">
         <v>20</v>
       </c>
-      <c r="J47" s="11">
-        <f>H47/I47</f>
+      <c r="J47" s="10">
         <v>13</v>
       </c>
       <c r="K47" s="4">
@@ -3516,8 +3467,7 @@
       <c r="I48" s="5">
         <v>3</v>
       </c>
-      <c r="J48" s="11">
-        <f>H48/I48</f>
+      <c r="J48" s="10">
         <v>285</v>
       </c>
       <c r="K48" s="4">
@@ -3548,8 +3498,7 @@
       <c r="I49" s="5">
         <v>12</v>
       </c>
-      <c r="J49" s="11">
-        <f>H49/I49</f>
+      <c r="J49" s="10">
         <v>140</v>
       </c>
       <c r="K49" s="4">
@@ -3570,7 +3519,7 @@
       <c r="E50" s="3" t="s">
         <v>339</v>
       </c>
-      <c r="F50" s="8"/>
+      <c r="F50" s="6"/>
       <c r="G50" s="3" t="s">
         <v>10</v>
       </c>
@@ -3580,8 +3529,7 @@
       <c r="I50" s="5">
         <v>2</v>
       </c>
-      <c r="J50" s="11">
-        <f>H50/I50</f>
+      <c r="J50" s="10">
         <v>280</v>
       </c>
       <c r="K50" s="4">
@@ -3612,8 +3560,7 @@
       <c r="I51" s="5">
         <v>3</v>
       </c>
-      <c r="J51" s="11">
-        <f>H51/I51</f>
+      <c r="J51" s="10">
         <v>150</v>
       </c>
       <c r="K51" s="4">
@@ -3644,8 +3591,7 @@
       <c r="I52" s="5">
         <v>480</v>
       </c>
-      <c r="J52" s="11">
-        <f>H52/I52</f>
+      <c r="J52" s="10">
         <v>1.2500000000000001E-2</v>
       </c>
       <c r="K52" s="4">
@@ -3676,8 +3622,7 @@
       <c r="I53" s="5">
         <v>480</v>
       </c>
-      <c r="J53" s="11">
-        <f>H53/I53</f>
+      <c r="J53" s="10">
         <v>1.2500000000000001E-2</v>
       </c>
       <c r="K53" s="4">
@@ -3708,8 +3653,7 @@
       <c r="I54" s="5">
         <v>480</v>
       </c>
-      <c r="J54" s="11">
-        <f>H54/I54</f>
+      <c r="J54" s="10">
         <v>1.2500000000000001E-2</v>
       </c>
       <c r="K54" s="4">
@@ -3740,8 +3684,7 @@
       <c r="I55" s="5">
         <v>480</v>
       </c>
-      <c r="J55" s="11">
-        <f>H55/I55</f>
+      <c r="J55" s="10">
         <v>1.2500000000000001E-2</v>
       </c>
       <c r="K55" s="4">
@@ -3772,8 +3715,7 @@
       <c r="I56" s="3">
         <v>48</v>
       </c>
-      <c r="J56" s="11">
-        <f>H56/I56</f>
+      <c r="J56" s="10">
         <v>45.833333333333336</v>
       </c>
       <c r="K56" s="4">
@@ -3806,8 +3748,7 @@
       <c r="I57" s="5">
         <v>12</v>
       </c>
-      <c r="J57" s="11">
-        <f>H57/I57</f>
+      <c r="J57" s="10">
         <v>48.75</v>
       </c>
       <c r="K57" s="4">
@@ -3840,8 +3781,7 @@
       <c r="I58" s="5">
         <v>21</v>
       </c>
-      <c r="J58" s="11">
-        <f>H58/I58</f>
+      <c r="J58" s="10">
         <v>22.38095238095238</v>
       </c>
       <c r="K58" s="4">
@@ -3850,16 +3790,16 @@
     </row>
     <row r="59" spans="1:11">
       <c r="A59" s="3"/>
-      <c r="B59" s="9" t="s">
+      <c r="B59" s="8" t="s">
         <v>298</v>
       </c>
-      <c r="C59" s="9" t="s">
+      <c r="C59" s="8" t="s">
         <v>333</v>
       </c>
-      <c r="D59" s="9" t="s">
+      <c r="D59" s="8" t="s">
         <v>334</v>
       </c>
-      <c r="E59" s="9" t="s">
+      <c r="E59" s="8" t="s">
         <v>428</v>
       </c>
       <c r="F59" s="3"/>
@@ -3870,8 +3810,7 @@
       <c r="I59" s="3">
         <v>50</v>
       </c>
-      <c r="J59" s="11">
-        <f>H59/I59</f>
+      <c r="J59" s="10">
         <v>60</v>
       </c>
       <c r="K59" s="4">
@@ -3880,16 +3819,16 @@
     </row>
     <row r="60" spans="1:11">
       <c r="A60" s="3"/>
-      <c r="B60" s="9" t="s">
+      <c r="B60" s="8" t="s">
         <v>299</v>
       </c>
-      <c r="C60" s="9" t="s">
+      <c r="C60" s="8" t="s">
         <v>333</v>
       </c>
-      <c r="D60" s="9" t="s">
+      <c r="D60" s="8" t="s">
         <v>334</v>
       </c>
-      <c r="E60" s="9" t="s">
+      <c r="E60" s="8" t="s">
         <v>429</v>
       </c>
       <c r="F60" s="3"/>
@@ -3900,8 +3839,7 @@
       <c r="I60" s="3">
         <v>15</v>
       </c>
-      <c r="J60" s="11">
-        <f>H60/I60</f>
+      <c r="J60" s="10">
         <v>65</v>
       </c>
       <c r="K60" s="4">
@@ -3913,10 +3851,10 @@
       <c r="B61" s="3" t="s">
         <v>300</v>
       </c>
-      <c r="C61" s="9" t="s">
+      <c r="C61" s="8" t="s">
         <v>333</v>
       </c>
-      <c r="D61" s="9" t="s">
+      <c r="D61" s="8" t="s">
         <v>300</v>
       </c>
       <c r="E61" s="3" t="s">
@@ -3930,8 +3868,7 @@
       <c r="I61" s="3">
         <v>20</v>
       </c>
-      <c r="J61" s="11">
-        <f>H61/I61</f>
+      <c r="J61" s="10">
         <v>150</v>
       </c>
       <c r="K61" s="4">
@@ -3943,10 +3880,10 @@
       <c r="B62" s="3" t="s">
         <v>301</v>
       </c>
-      <c r="C62" s="9" t="s">
+      <c r="C62" s="8" t="s">
         <v>333</v>
       </c>
-      <c r="D62" s="9" t="s">
+      <c r="D62" s="8" t="s">
         <v>301</v>
       </c>
       <c r="E62" s="3" t="s">
@@ -3962,8 +3899,7 @@
       <c r="I62" s="3">
         <v>30</v>
       </c>
-      <c r="J62" s="11">
-        <f>H62/I62</f>
+      <c r="J62" s="10">
         <v>110</v>
       </c>
       <c r="K62" s="4">
@@ -3994,8 +3930,7 @@
       <c r="I63" s="5">
         <v>4</v>
       </c>
-      <c r="J63" s="11">
-        <f>H63/I63</f>
+      <c r="J63" s="10">
         <v>110</v>
       </c>
       <c r="K63" s="4">
@@ -4026,8 +3961,7 @@
       <c r="I64" s="5">
         <v>12</v>
       </c>
-      <c r="J64" s="11">
-        <f>H64/I64</f>
+      <c r="J64" s="10">
         <v>31.666666666666668</v>
       </c>
       <c r="K64" s="4">
@@ -4058,8 +3992,7 @@
       <c r="I65" s="5">
         <v>24</v>
       </c>
-      <c r="J65" s="11">
-        <f>H65/I65</f>
+      <c r="J65" s="10">
         <v>15.833333333333334</v>
       </c>
       <c r="K65" s="4">
@@ -4068,16 +4001,16 @@
     </row>
     <row r="66" spans="1:11">
       <c r="A66" s="3"/>
-      <c r="B66" s="9" t="s">
+      <c r="B66" s="8" t="s">
         <v>45</v>
       </c>
       <c r="C66" s="3" t="s">
         <v>336</v>
       </c>
-      <c r="D66" s="9" t="s">
+      <c r="D66" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="E66" s="9" t="s">
+      <c r="E66" s="8" t="s">
         <v>40</v>
       </c>
       <c r="F66" s="7" t="s">
@@ -4089,26 +4022,21 @@
       <c r="H66" s="4">
         <v>380</v>
       </c>
-      <c r="I66" s="5">
-        <v>0</v>
-      </c>
-      <c r="J66" s="11" t="e">
-        <f>H66/I66</f>
-        <v>#DIV/0!</v>
-      </c>
+      <c r="I66" s="5"/>
+      <c r="J66" s="10"/>
       <c r="K66" s="4">
         <v>260</v>
       </c>
     </row>
     <row r="67" spans="1:11">
       <c r="A67" s="3"/>
-      <c r="B67" s="9" t="s">
+      <c r="B67" s="8" t="s">
         <v>45</v>
       </c>
       <c r="C67" s="3" t="s">
         <v>336</v>
       </c>
-      <c r="D67" s="9" t="s">
+      <c r="D67" s="8" t="s">
         <v>44</v>
       </c>
       <c r="E67" s="3" t="s">
@@ -4120,17 +4048,14 @@
         <v>250</v>
       </c>
       <c r="I67" s="5"/>
-      <c r="J67" s="11" t="e">
-        <f>H67/I67</f>
-        <v>#DIV/0!</v>
-      </c>
+      <c r="J67" s="10"/>
       <c r="K67" s="4">
         <v>260</v>
       </c>
     </row>
     <row r="68" spans="1:11">
       <c r="A68" s="3"/>
-      <c r="B68" s="9" t="s">
+      <c r="B68" s="8" t="s">
         <v>45</v>
       </c>
       <c r="C68" s="3" t="s">
@@ -4152,17 +4077,14 @@
         <v>250</v>
       </c>
       <c r="I68" s="5"/>
-      <c r="J68" s="11" t="e">
-        <f>H68/I68</f>
-        <v>#DIV/0!</v>
-      </c>
+      <c r="J68" s="10"/>
       <c r="K68" s="4">
         <v>260</v>
       </c>
     </row>
     <row r="69" spans="1:11">
       <c r="A69" s="3"/>
-      <c r="B69" s="9" t="s">
+      <c r="B69" s="8" t="s">
         <v>45</v>
       </c>
       <c r="C69" s="3" t="s">
@@ -4184,17 +4106,14 @@
         <v>625</v>
       </c>
       <c r="I69" s="5"/>
-      <c r="J69" s="11" t="e">
-        <f>H69/I69</f>
-        <v>#DIV/0!</v>
-      </c>
+      <c r="J69" s="10"/>
       <c r="K69" s="4">
         <v>260</v>
       </c>
     </row>
     <row r="70" spans="1:11">
       <c r="A70" s="3"/>
-      <c r="B70" s="9" t="s">
+      <c r="B70" s="8" t="s">
         <v>45</v>
       </c>
       <c r="C70" s="3" t="s">
@@ -4218,8 +4137,7 @@
       <c r="I70" s="5">
         <v>24</v>
       </c>
-      <c r="J70" s="11">
-        <f>H70/I70</f>
+      <c r="J70" s="10">
         <v>52.708333333333336</v>
       </c>
       <c r="K70" s="4">
@@ -4228,7 +4146,7 @@
     </row>
     <row r="71" spans="1:11">
       <c r="A71" s="3"/>
-      <c r="B71" s="9" t="s">
+      <c r="B71" s="8" t="s">
         <v>45</v>
       </c>
       <c r="C71" s="3" t="s">
@@ -4250,8 +4168,7 @@
       <c r="I71" s="5">
         <v>24</v>
       </c>
-      <c r="J71" s="11">
-        <f>H71/I71</f>
+      <c r="J71" s="10">
         <v>52.708333333333336</v>
       </c>
       <c r="K71" s="4">
@@ -4260,7 +4177,7 @@
     </row>
     <row r="72" spans="1:11">
       <c r="A72" s="3"/>
-      <c r="B72" s="9" t="s">
+      <c r="B72" s="8" t="s">
         <v>45</v>
       </c>
       <c r="C72" s="3" t="s">
@@ -4282,8 +4199,7 @@
       <c r="I72" s="5">
         <v>24</v>
       </c>
-      <c r="J72" s="11">
-        <f>H72/I72</f>
+      <c r="J72" s="10">
         <v>52.708333333333336</v>
       </c>
       <c r="K72" s="4">
@@ -4292,7 +4208,7 @@
     </row>
     <row r="73" spans="1:11">
       <c r="A73" s="3"/>
-      <c r="B73" s="9" t="s">
+      <c r="B73" s="8" t="s">
         <v>45</v>
       </c>
       <c r="C73" s="3" t="s">
@@ -4312,8 +4228,7 @@
       <c r="I73" s="5">
         <v>24</v>
       </c>
-      <c r="J73" s="11">
-        <f>H73/I73</f>
+      <c r="J73" s="10">
         <v>18.333333333333332</v>
       </c>
       <c r="K73" s="4">
@@ -4346,8 +4261,7 @@
       <c r="I74" s="5">
         <v>12</v>
       </c>
-      <c r="J74" s="11">
-        <f>H74/I74</f>
+      <c r="J74" s="10">
         <v>41.666666666666664</v>
       </c>
       <c r="K74" s="4">
@@ -4362,13 +4276,13 @@
       <c r="C75" s="3" t="s">
         <v>336</v>
       </c>
-      <c r="D75" s="9" t="s">
+      <c r="D75" s="8" t="s">
         <v>411</v>
       </c>
-      <c r="E75" s="9" t="s">
+      <c r="E75" s="8" t="s">
         <v>411</v>
       </c>
-      <c r="F75" s="13"/>
+      <c r="F75" s="12"/>
       <c r="G75" s="3" t="s">
         <v>30</v>
       </c>
@@ -4378,8 +4292,7 @@
       <c r="I75" s="5">
         <v>12</v>
       </c>
-      <c r="J75" s="11">
-        <f>H75/I75</f>
+      <c r="J75" s="10">
         <v>41.666666666666664</v>
       </c>
       <c r="K75" s="4">
@@ -4394,10 +4307,10 @@
       <c r="C76" s="3" t="s">
         <v>336</v>
       </c>
-      <c r="D76" s="9" t="s">
+      <c r="D76" s="8" t="s">
         <v>411</v>
       </c>
-      <c r="E76" s="9" t="s">
+      <c r="E76" s="8" t="s">
         <v>411</v>
       </c>
       <c r="F76" s="3"/>
@@ -4410,8 +4323,7 @@
       <c r="I76" s="5">
         <v>12</v>
       </c>
-      <c r="J76" s="11">
-        <f>H76/I76</f>
+      <c r="J76" s="10">
         <v>41.666666666666664</v>
       </c>
       <c r="K76" s="4">
@@ -4426,10 +4338,10 @@
       <c r="C77" s="3" t="s">
         <v>336</v>
       </c>
-      <c r="D77" s="9" t="s">
+      <c r="D77" s="8" t="s">
         <v>411</v>
       </c>
-      <c r="E77" s="9" t="s">
+      <c r="E77" s="8" t="s">
         <v>411</v>
       </c>
       <c r="F77" s="3"/>
@@ -4442,8 +4354,7 @@
       <c r="I77" s="5">
         <v>12</v>
       </c>
-      <c r="J77" s="11">
-        <f>H77/I77</f>
+      <c r="J77" s="10">
         <v>41.666666666666664</v>
       </c>
       <c r="K77" s="4">
@@ -4458,10 +4369,10 @@
       <c r="C78" s="3" t="s">
         <v>336</v>
       </c>
-      <c r="D78" s="9" t="s">
+      <c r="D78" s="8" t="s">
         <v>411</v>
       </c>
-      <c r="E78" s="9" t="s">
+      <c r="E78" s="8" t="s">
         <v>411</v>
       </c>
       <c r="F78" s="7" t="s">
@@ -4476,8 +4387,7 @@
       <c r="I78" s="5">
         <v>12</v>
       </c>
-      <c r="J78" s="11">
-        <f>H78/I78</f>
+      <c r="J78" s="10">
         <v>67.5</v>
       </c>
       <c r="K78" s="4">
@@ -4492,10 +4402,10 @@
       <c r="C79" s="3" t="s">
         <v>336</v>
       </c>
-      <c r="D79" s="9" t="s">
+      <c r="D79" s="8" t="s">
         <v>411</v>
       </c>
-      <c r="E79" s="9" t="s">
+      <c r="E79" s="8" t="s">
         <v>411</v>
       </c>
       <c r="F79" s="7" t="s">
@@ -4510,8 +4420,7 @@
       <c r="I79" s="5">
         <v>12</v>
       </c>
-      <c r="J79" s="11">
-        <f>H79/I79</f>
+      <c r="J79" s="10">
         <v>44.166666666666664</v>
       </c>
       <c r="K79" s="4">
@@ -4526,10 +4435,10 @@
       <c r="C80" s="3" t="s">
         <v>336</v>
       </c>
-      <c r="D80" s="9" t="s">
+      <c r="D80" s="8" t="s">
         <v>411</v>
       </c>
-      <c r="E80" s="9" t="s">
+      <c r="E80" s="8" t="s">
         <v>411</v>
       </c>
       <c r="F80" s="3"/>
@@ -4542,8 +4451,7 @@
       <c r="I80" s="5">
         <v>12</v>
       </c>
-      <c r="J80" s="11">
-        <f>H80/I80</f>
+      <c r="J80" s="10">
         <v>44.166666666666664</v>
       </c>
       <c r="K80" s="4">
@@ -4558,10 +4466,10 @@
       <c r="C81" s="3" t="s">
         <v>336</v>
       </c>
-      <c r="D81" s="9" t="s">
+      <c r="D81" s="8" t="s">
         <v>412</v>
       </c>
-      <c r="E81" s="9" t="s">
+      <c r="E81" s="8" t="s">
         <v>413</v>
       </c>
       <c r="F81" s="3">
@@ -4576,8 +4484,7 @@
       <c r="I81" s="5">
         <v>12</v>
       </c>
-      <c r="J81" s="11">
-        <f>H81/I81</f>
+      <c r="J81" s="10">
         <v>44.166666666666664</v>
       </c>
       <c r="K81" s="4">
@@ -4592,10 +4499,10 @@
       <c r="C82" s="3" t="s">
         <v>336</v>
       </c>
-      <c r="D82" s="9" t="s">
+      <c r="D82" s="8" t="s">
         <v>414</v>
       </c>
-      <c r="E82" s="9" t="s">
+      <c r="E82" s="8" t="s">
         <v>365</v>
       </c>
       <c r="F82" s="7" t="s">
@@ -4610,8 +4517,7 @@
       <c r="I82" s="5">
         <v>12</v>
       </c>
-      <c r="J82" s="11">
-        <f>H82/I82</f>
+      <c r="J82" s="10">
         <v>44.166666666666664</v>
       </c>
       <c r="K82" s="4">
@@ -4626,10 +4532,10 @@
       <c r="C83" s="3" t="s">
         <v>336</v>
       </c>
-      <c r="D83" s="9" t="s">
+      <c r="D83" s="8" t="s">
         <v>415</v>
       </c>
-      <c r="E83" s="9" t="s">
+      <c r="E83" s="8" t="s">
         <v>365</v>
       </c>
       <c r="F83" s="7" t="s">
@@ -4644,8 +4550,7 @@
       <c r="I83" s="5">
         <v>12</v>
       </c>
-      <c r="J83" s="11">
-        <f>H83/I83</f>
+      <c r="J83" s="10">
         <v>44.166666666666664</v>
       </c>
       <c r="K83" s="4">
@@ -4663,7 +4568,7 @@
       <c r="D84" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="E84" s="9" t="s">
+      <c r="E84" s="8" t="s">
         <v>365</v>
       </c>
       <c r="F84" s="7" t="s">
@@ -4678,8 +4583,7 @@
       <c r="I84" s="5">
         <v>12</v>
       </c>
-      <c r="J84" s="11">
-        <f>H84/I84</f>
+      <c r="J84" s="10">
         <v>44.166666666666664</v>
       </c>
       <c r="K84" s="4">
@@ -4694,10 +4598,10 @@
       <c r="C85" s="3" t="s">
         <v>336</v>
       </c>
-      <c r="D85" s="9" t="s">
+      <c r="D85" s="8" t="s">
         <v>70</v>
       </c>
-      <c r="E85" s="9" t="s">
+      <c r="E85" s="8" t="s">
         <v>70</v>
       </c>
       <c r="F85" s="7" t="s">
@@ -4710,8 +4614,7 @@
       <c r="I85" s="5">
         <v>12</v>
       </c>
-      <c r="J85" s="11">
-        <f>H85/I85</f>
+      <c r="J85" s="10">
         <v>54.166666666666664</v>
       </c>
       <c r="K85" s="4">
@@ -4744,8 +4647,7 @@
       <c r="I86" s="5">
         <v>3</v>
       </c>
-      <c r="J86" s="11">
-        <f>H86/I86</f>
+      <c r="J86" s="10">
         <v>90</v>
       </c>
       <c r="K86" s="4">
@@ -4778,8 +4680,7 @@
       <c r="I87" s="5">
         <v>24</v>
       </c>
-      <c r="J87" s="11">
-        <f>H87/I87</f>
+      <c r="J87" s="10">
         <v>14.583333333333334</v>
       </c>
       <c r="K87" s="4">
@@ -4812,8 +4713,7 @@
       <c r="I88" s="5">
         <v>3</v>
       </c>
-      <c r="J88" s="11">
-        <f>H88/I88</f>
+      <c r="J88" s="10">
         <v>88</v>
       </c>
       <c r="K88" s="4">
@@ -4846,8 +4746,7 @@
       <c r="I89" s="5">
         <v>3</v>
       </c>
-      <c r="J89" s="11">
-        <f>H89/I89</f>
+      <c r="J89" s="10">
         <v>152</v>
       </c>
       <c r="K89" s="4">
@@ -4880,8 +4779,7 @@
       <c r="I90" s="5">
         <v>2</v>
       </c>
-      <c r="J90" s="11">
-        <f>H90/I90</f>
+      <c r="J90" s="10">
         <v>165</v>
       </c>
       <c r="K90" s="4">
@@ -4896,10 +4794,10 @@
       <c r="C91" s="3" t="s">
         <v>336</v>
       </c>
-      <c r="D91" s="9" t="s">
+      <c r="D91" s="8" t="s">
         <v>416</v>
       </c>
-      <c r="E91" s="9" t="s">
+      <c r="E91" s="8" t="s">
         <v>365</v>
       </c>
       <c r="F91" s="7" t="s">
@@ -4914,8 +4812,7 @@
       <c r="I91" s="5">
         <v>12</v>
       </c>
-      <c r="J91" s="11">
-        <f>H91/I91</f>
+      <c r="J91" s="10">
         <v>52.5</v>
       </c>
       <c r="K91" s="4">
@@ -4924,16 +4821,16 @@
     </row>
     <row r="92" spans="1:11">
       <c r="A92" s="3"/>
-      <c r="B92" s="9" t="s">
+      <c r="B92" s="8" t="s">
         <v>45</v>
       </c>
       <c r="C92" s="3" t="s">
         <v>336</v>
       </c>
-      <c r="D92" s="9" t="s">
+      <c r="D92" s="8" t="s">
         <v>45</v>
       </c>
-      <c r="E92" s="9" t="s">
+      <c r="E92" s="8" t="s">
         <v>434</v>
       </c>
       <c r="F92" s="3"/>
@@ -4946,8 +4843,7 @@
       <c r="I92" s="5">
         <v>6</v>
       </c>
-      <c r="J92" s="11">
-        <f>H92/I92</f>
+      <c r="J92" s="10">
         <v>167.5</v>
       </c>
       <c r="K92" s="4">
@@ -4956,16 +4852,16 @@
     </row>
     <row r="93" spans="1:11">
       <c r="A93" s="3"/>
-      <c r="B93" s="9" t="s">
+      <c r="B93" s="8" t="s">
         <v>45</v>
       </c>
       <c r="C93" s="3" t="s">
         <v>336</v>
       </c>
-      <c r="D93" s="9" t="s">
+      <c r="D93" s="8" t="s">
         <v>45</v>
       </c>
-      <c r="E93" s="9" t="s">
+      <c r="E93" s="8" t="s">
         <v>38</v>
       </c>
       <c r="F93" s="7" t="s">
@@ -4975,20 +4871,15 @@
       <c r="H93" s="4">
         <v>1005</v>
       </c>
-      <c r="I93" s="5">
-        <v>0</v>
-      </c>
-      <c r="J93" s="11" t="e">
-        <f>H93/I93</f>
-        <v>#DIV/0!</v>
-      </c>
+      <c r="I93" s="5"/>
+      <c r="J93" s="10"/>
       <c r="K93" s="4">
         <v>260</v>
       </c>
     </row>
     <row r="94" spans="1:11">
       <c r="A94" s="3"/>
-      <c r="B94" s="9" t="s">
+      <c r="B94" s="8" t="s">
         <v>45</v>
       </c>
       <c r="C94" s="3" t="s">
@@ -5010,8 +4901,7 @@
       <c r="I94" s="5">
         <v>12</v>
       </c>
-      <c r="J94" s="11">
-        <f>H94/I94</f>
+      <c r="J94" s="10">
         <v>108.33333333333333</v>
       </c>
       <c r="K94" s="4">
@@ -5020,7 +4910,7 @@
     </row>
     <row r="95" spans="1:11">
       <c r="A95" s="3"/>
-      <c r="B95" s="9" t="s">
+      <c r="B95" s="8" t="s">
         <v>45</v>
       </c>
       <c r="C95" s="3" t="s">
@@ -5029,7 +4919,7 @@
       <c r="D95" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="E95" s="9" t="s">
+      <c r="E95" s="8" t="s">
         <v>38</v>
       </c>
       <c r="F95" s="7" t="s">
@@ -5042,17 +4932,14 @@
         <v>1300</v>
       </c>
       <c r="I95" s="5"/>
-      <c r="J95" s="11" t="e">
-        <f>H95/I95</f>
-        <v>#DIV/0!</v>
-      </c>
+      <c r="J95" s="10"/>
       <c r="K95" s="4">
         <v>260</v>
       </c>
     </row>
     <row r="96" spans="1:11">
       <c r="A96" s="3"/>
-      <c r="B96" s="9" t="s">
+      <c r="B96" s="8" t="s">
         <v>45</v>
       </c>
       <c r="C96" s="3" t="s">
@@ -5074,8 +4961,7 @@
       <c r="I96" s="5">
         <v>24</v>
       </c>
-      <c r="J96" s="11">
-        <f>H96/I96</f>
+      <c r="J96" s="10">
         <v>41.666666666666664</v>
       </c>
       <c r="K96" s="4">
@@ -5084,7 +4970,7 @@
     </row>
     <row r="97" spans="1:11">
       <c r="A97" s="3"/>
-      <c r="B97" s="9" t="s">
+      <c r="B97" s="8" t="s">
         <v>45</v>
       </c>
       <c r="C97" s="3" t="s">
@@ -5106,8 +4992,7 @@
       <c r="I97" s="5">
         <v>24</v>
       </c>
-      <c r="J97" s="11">
-        <f>H97/I97</f>
+      <c r="J97" s="10">
         <v>32.5</v>
       </c>
       <c r="K97" s="4">
@@ -5116,20 +5001,20 @@
     </row>
     <row r="98" spans="1:11">
       <c r="A98" s="3"/>
-      <c r="B98" s="9" t="s">
+      <c r="B98" s="8" t="s">
         <v>45</v>
       </c>
       <c r="C98" s="3" t="s">
         <v>336</v>
       </c>
-      <c r="D98" s="9" t="s">
+      <c r="D98" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="E98" s="9" t="s">
+      <c r="E98" s="8" t="s">
         <v>436</v>
       </c>
       <c r="F98" s="3"/>
-      <c r="G98" s="9" t="s">
+      <c r="G98" s="8" t="s">
         <v>435</v>
       </c>
       <c r="H98" s="4">
@@ -5138,8 +5023,7 @@
       <c r="I98" s="5">
         <v>24</v>
       </c>
-      <c r="J98" s="11">
-        <f>H98/I98</f>
+      <c r="J98" s="10">
         <v>41.666666666666664</v>
       </c>
       <c r="K98" s="4">
@@ -5148,39 +5032,36 @@
     </row>
     <row r="99" spans="1:11">
       <c r="A99" s="3"/>
-      <c r="B99" s="9" t="s">
+      <c r="B99" s="8" t="s">
         <v>45</v>
       </c>
       <c r="C99" s="3" t="s">
         <v>336</v>
       </c>
-      <c r="D99" s="9" t="s">
+      <c r="D99" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="E99" s="9" t="s">
+      <c r="E99" s="8" t="s">
         <v>42</v>
       </c>
       <c r="F99" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="G99" s="9" t="s">
+      <c r="G99" s="8" t="s">
         <v>435</v>
       </c>
       <c r="H99" s="4">
         <v>1000</v>
       </c>
       <c r="I99" s="5"/>
-      <c r="J99" s="11" t="e">
-        <f>H99/I99</f>
-        <v>#DIV/0!</v>
-      </c>
+      <c r="J99" s="10"/>
       <c r="K99" s="4">
         <v>260</v>
       </c>
     </row>
     <row r="100" spans="1:11">
       <c r="A100" s="3"/>
-      <c r="B100" s="9" t="s">
+      <c r="B100" s="8" t="s">
         <v>45</v>
       </c>
       <c r="C100" s="3" t="s">
@@ -5200,17 +5081,14 @@
         <v>430</v>
       </c>
       <c r="I100" s="5"/>
-      <c r="J100" s="11" t="e">
-        <f>H100/I100</f>
-        <v>#DIV/0!</v>
-      </c>
+      <c r="J100" s="10"/>
       <c r="K100" s="4">
         <v>260</v>
       </c>
     </row>
     <row r="101" spans="1:11">
       <c r="A101" s="3"/>
-      <c r="B101" s="9" t="s">
+      <c r="B101" s="8" t="s">
         <v>45</v>
       </c>
       <c r="C101" s="3" t="s">
@@ -5232,8 +5110,7 @@
       <c r="I101" s="5">
         <v>24</v>
       </c>
-      <c r="J101" s="11">
-        <f>H101/I101</f>
+      <c r="J101" s="10">
         <v>15.833333333333334</v>
       </c>
       <c r="K101" s="4">
@@ -5242,7 +5119,7 @@
     </row>
     <row r="102" spans="1:11">
       <c r="A102" s="3"/>
-      <c r="B102" s="9" t="s">
+      <c r="B102" s="8" t="s">
         <v>45</v>
       </c>
       <c r="C102" s="3" t="s">
@@ -5262,8 +5139,7 @@
       <c r="I102" s="5">
         <v>24</v>
       </c>
-      <c r="J102" s="11">
-        <f>H102/I102</f>
+      <c r="J102" s="10">
         <v>9.5833333333333339</v>
       </c>
       <c r="K102" s="4">
@@ -5296,8 +5172,7 @@
       <c r="I103" s="3">
         <v>36</v>
       </c>
-      <c r="J103" s="11">
-        <f>H103/I103</f>
+      <c r="J103" s="10">
         <v>19.083333333333332</v>
       </c>
       <c r="K103" s="4">
@@ -5309,10 +5184,10 @@
       <c r="B104" s="3" t="s">
         <v>273</v>
       </c>
-      <c r="C104" s="9" t="s">
+      <c r="C104" s="8" t="s">
         <v>328</v>
       </c>
-      <c r="D104" s="9" t="s">
+      <c r="D104" s="8" t="s">
         <v>273</v>
       </c>
       <c r="E104" s="3" t="s">
@@ -5330,8 +5205,7 @@
       <c r="I104" s="3">
         <v>12</v>
       </c>
-      <c r="J104" s="11">
-        <f>H104/I104</f>
+      <c r="J104" s="10">
         <v>35</v>
       </c>
       <c r="K104" s="4">
@@ -5343,10 +5217,10 @@
       <c r="B105" s="3" t="s">
         <v>273</v>
       </c>
-      <c r="C105" s="9" t="s">
+      <c r="C105" s="8" t="s">
         <v>328</v>
       </c>
-      <c r="D105" s="9" t="s">
+      <c r="D105" s="8" t="s">
         <v>273</v>
       </c>
       <c r="E105" s="3" t="s">
@@ -5362,10 +5236,7 @@
         <v>420</v>
       </c>
       <c r="I105" s="3"/>
-      <c r="J105" s="11" t="e">
-        <f>H105/I105</f>
-        <v>#DIV/0!</v>
-      </c>
+      <c r="J105" s="10"/>
       <c r="K105" s="4">
         <v>35</v>
       </c>
@@ -5396,8 +5267,7 @@
       <c r="I106" s="5">
         <v>20</v>
       </c>
-      <c r="J106" s="11">
-        <f>H106/I106</f>
+      <c r="J106" s="10">
         <v>63.5</v>
       </c>
       <c r="K106" s="4">
@@ -5409,10 +5279,10 @@
       <c r="B107" s="3" t="s">
         <v>276</v>
       </c>
-      <c r="C107" s="9" t="s">
+      <c r="C107" s="8" t="s">
         <v>328</v>
       </c>
-      <c r="D107" s="9" t="s">
+      <c r="D107" s="8" t="s">
         <v>401</v>
       </c>
       <c r="E107" s="3" t="s">
@@ -5430,8 +5300,7 @@
       <c r="I107" s="3">
         <v>20</v>
       </c>
-      <c r="J107" s="11">
-        <f>H107/I107</f>
+      <c r="J107" s="10">
         <v>37</v>
       </c>
       <c r="K107" s="4">
@@ -5443,10 +5312,10 @@
       <c r="B108" s="3" t="s">
         <v>306</v>
       </c>
-      <c r="C108" s="9" t="s">
+      <c r="C108" s="8" t="s">
         <v>328</v>
       </c>
-      <c r="D108" s="9" t="s">
+      <c r="D108" s="8" t="s">
         <v>306</v>
       </c>
       <c r="E108" s="3" t="s">
@@ -5462,8 +5331,7 @@
       <c r="I108" s="3">
         <v>5</v>
       </c>
-      <c r="J108" s="11">
-        <f>H108/I108</f>
+      <c r="J108" s="10">
         <v>290</v>
       </c>
       <c r="K108" s="4">
@@ -5478,10 +5346,10 @@
       <c r="C109" s="3" t="s">
         <v>371</v>
       </c>
-      <c r="D109" s="9" t="s">
+      <c r="D109" s="8" t="s">
         <v>432</v>
       </c>
-      <c r="E109" s="9" t="s">
+      <c r="E109" s="8" t="s">
         <v>432</v>
       </c>
       <c r="F109" s="7" t="s">
@@ -5496,8 +5364,7 @@
       <c r="I109" s="3">
         <v>40</v>
       </c>
-      <c r="J109" s="11">
-        <f>H109/I109</f>
+      <c r="J109" s="10">
         <v>31.75</v>
       </c>
       <c r="K109" s="4">
@@ -5512,10 +5379,10 @@
       <c r="C110" s="3" t="s">
         <v>371</v>
       </c>
-      <c r="D110" s="9" t="s">
+      <c r="D110" s="8" t="s">
         <v>433</v>
       </c>
-      <c r="E110" s="9" t="s">
+      <c r="E110" s="8" t="s">
         <v>433</v>
       </c>
       <c r="F110" s="7" t="s">
@@ -5530,8 +5397,7 @@
       <c r="I110" s="3">
         <v>40</v>
       </c>
-      <c r="J110" s="11">
-        <f>H110/I110</f>
+      <c r="J110" s="10">
         <v>2.875</v>
       </c>
       <c r="K110" s="4">
@@ -5555,7 +5421,7 @@
       <c r="F111" s="7" t="s">
         <v>137</v>
       </c>
-      <c r="G111" s="9" t="s">
+      <c r="G111" s="8" t="s">
         <v>435</v>
       </c>
       <c r="H111" s="4">
@@ -5564,8 +5430,7 @@
       <c r="I111" s="5">
         <v>50</v>
       </c>
-      <c r="J111" s="11">
-        <f>H111/I111</f>
+      <c r="J111" s="10">
         <v>20</v>
       </c>
       <c r="K111" s="4"/>
@@ -5575,13 +5440,13 @@
       <c r="B112" s="3" t="s">
         <v>279</v>
       </c>
-      <c r="C112" s="9" t="s">
+      <c r="C112" s="8" t="s">
         <v>373</v>
       </c>
-      <c r="D112" s="9" t="s">
+      <c r="D112" s="8" t="s">
         <v>421</v>
       </c>
-      <c r="E112" s="9" t="s">
+      <c r="E112" s="8" t="s">
         <v>421</v>
       </c>
       <c r="F112" s="7" t="s">
@@ -5596,8 +5461,7 @@
       <c r="I112" s="3">
         <v>1</v>
       </c>
-      <c r="J112" s="11">
-        <f>H112/I112</f>
+      <c r="J112" s="10">
         <v>510</v>
       </c>
       <c r="K112" s="4">
@@ -5609,13 +5473,13 @@
       <c r="B113" s="3" t="s">
         <v>279</v>
       </c>
-      <c r="C113" s="9" t="s">
+      <c r="C113" s="8" t="s">
         <v>373</v>
       </c>
-      <c r="D113" s="9" t="s">
+      <c r="D113" s="8" t="s">
         <v>421</v>
       </c>
-      <c r="E113" s="9" t="s">
+      <c r="E113" s="8" t="s">
         <v>421</v>
       </c>
       <c r="F113" s="7" t="s">
@@ -5630,8 +5494,7 @@
       <c r="I113" s="3">
         <v>2</v>
       </c>
-      <c r="J113" s="11">
-        <f>H113/I113</f>
+      <c r="J113" s="10">
         <v>260</v>
       </c>
       <c r="K113" s="4">
@@ -5643,13 +5506,13 @@
       <c r="B114" s="3" t="s">
         <v>279</v>
       </c>
-      <c r="C114" s="9" t="s">
+      <c r="C114" s="8" t="s">
         <v>373</v>
       </c>
-      <c r="D114" s="9" t="s">
+      <c r="D114" s="8" t="s">
         <v>421</v>
       </c>
-      <c r="E114" s="9" t="s">
+      <c r="E114" s="8" t="s">
         <v>421</v>
       </c>
       <c r="F114" s="7" t="s">
@@ -5664,8 +5527,7 @@
       <c r="I114" s="3">
         <v>4</v>
       </c>
-      <c r="J114" s="11">
-        <f>H114/I114</f>
+      <c r="J114" s="10">
         <v>137</v>
       </c>
       <c r="K114" s="4">
@@ -5677,13 +5539,13 @@
       <c r="B115" s="3" t="s">
         <v>279</v>
       </c>
-      <c r="C115" s="9" t="s">
+      <c r="C115" s="8" t="s">
         <v>373</v>
       </c>
-      <c r="D115" s="9" t="s">
+      <c r="D115" s="8" t="s">
         <v>421</v>
       </c>
-      <c r="E115" s="9" t="s">
+      <c r="E115" s="8" t="s">
         <v>421</v>
       </c>
       <c r="F115" s="3">
@@ -5698,8 +5560,7 @@
       <c r="I115" s="3">
         <v>6</v>
       </c>
-      <c r="J115" s="11">
-        <f>H115/I115</f>
+      <c r="J115" s="10">
         <v>60</v>
       </c>
       <c r="K115" s="4">
@@ -5711,13 +5572,13 @@
       <c r="B116" s="3" t="s">
         <v>279</v>
       </c>
-      <c r="C116" s="9" t="s">
+      <c r="C116" s="8" t="s">
         <v>373</v>
       </c>
-      <c r="D116" s="9" t="s">
+      <c r="D116" s="8" t="s">
         <v>421</v>
       </c>
-      <c r="E116" s="9" t="s">
+      <c r="E116" s="8" t="s">
         <v>421</v>
       </c>
       <c r="F116" s="7" t="s">
@@ -5732,8 +5593,7 @@
       <c r="I116" s="3">
         <v>6</v>
       </c>
-      <c r="J116" s="11">
-        <f>H116/I116</f>
+      <c r="J116" s="10">
         <v>60</v>
       </c>
       <c r="K116" s="4">
@@ -5745,10 +5605,10 @@
       <c r="B117" s="3" t="s">
         <v>284</v>
       </c>
-      <c r="C117" s="9" t="s">
+      <c r="C117" s="8" t="s">
         <v>373</v>
       </c>
-      <c r="D117" s="9" t="s">
+      <c r="D117" s="8" t="s">
         <v>402</v>
       </c>
       <c r="E117" s="3" t="s">
@@ -5764,8 +5624,7 @@
       <c r="I117" s="3">
         <v>6</v>
       </c>
-      <c r="J117" s="11">
-        <f>H117/I117</f>
+      <c r="J117" s="10">
         <v>60</v>
       </c>
       <c r="K117" s="4">
@@ -5800,8 +5659,7 @@
       <c r="I118" s="5">
         <v>12</v>
       </c>
-      <c r="J118" s="11">
-        <f>H118/I118</f>
+      <c r="J118" s="10">
         <v>151.5</v>
       </c>
       <c r="K118" s="4">
@@ -5834,8 +5692,7 @@
       <c r="I119" s="5">
         <v>12</v>
       </c>
-      <c r="J119" s="11">
-        <f>H119/I119</f>
+      <c r="J119" s="10">
         <v>152.5</v>
       </c>
       <c r="K119" s="4">
@@ -5868,8 +5725,7 @@
       <c r="I120" s="5">
         <v>12</v>
       </c>
-      <c r="J120" s="11">
-        <f>H120/I120</f>
+      <c r="J120" s="10">
         <v>190</v>
       </c>
       <c r="K120" s="4">
@@ -5902,8 +5758,7 @@
       <c r="I121" s="5">
         <v>24</v>
       </c>
-      <c r="J121" s="11">
-        <f>H121/I121</f>
+      <c r="J121" s="10">
         <v>91.5</v>
       </c>
       <c r="K121" s="4">
@@ -5936,8 +5791,7 @@
       <c r="I122" s="3">
         <v>12</v>
       </c>
-      <c r="J122" s="11">
-        <f>H122/I122</f>
+      <c r="J122" s="10">
         <v>13.75</v>
       </c>
       <c r="K122" s="4">
@@ -5968,8 +5822,7 @@
       <c r="I123" s="3">
         <v>12</v>
       </c>
-      <c r="J123" s="11">
-        <f>H123/I123</f>
+      <c r="J123" s="10">
         <v>13.75</v>
       </c>
       <c r="K123" s="4">
@@ -5981,10 +5834,10 @@
       <c r="B124" s="3" t="s">
         <v>285</v>
       </c>
-      <c r="C124" s="9" t="s">
+      <c r="C124" s="8" t="s">
         <v>423</v>
       </c>
-      <c r="D124" s="9" t="s">
+      <c r="D124" s="8" t="s">
         <v>423</v>
       </c>
       <c r="E124" s="3" t="s">
@@ -6002,8 +5855,7 @@
       <c r="I124" s="3">
         <v>6</v>
       </c>
-      <c r="J124" s="11">
-        <f>H124/I124</f>
+      <c r="J124" s="10">
         <v>211.66666666666666</v>
       </c>
       <c r="K124" s="4">
@@ -6015,10 +5867,10 @@
       <c r="B125" s="3" t="s">
         <v>287</v>
       </c>
-      <c r="C125" s="9" t="s">
+      <c r="C125" s="8" t="s">
         <v>423</v>
       </c>
-      <c r="D125" s="9" t="s">
+      <c r="D125" s="8" t="s">
         <v>423</v>
       </c>
       <c r="E125" s="3" t="s">
@@ -6036,8 +5888,7 @@
       <c r="I125" s="3">
         <v>12</v>
       </c>
-      <c r="J125" s="11">
-        <f>H125/I125</f>
+      <c r="J125" s="10">
         <v>21.666666666666668</v>
       </c>
       <c r="K125" s="4">
@@ -6066,8 +5917,7 @@
       <c r="I126" s="5">
         <v>5</v>
       </c>
-      <c r="J126" s="11">
-        <f>H126/I126</f>
+      <c r="J126" s="10">
         <v>210</v>
       </c>
       <c r="K126" s="4">
@@ -6098,8 +5948,7 @@
       <c r="I127" s="5">
         <v>5</v>
       </c>
-      <c r="J127" s="11">
-        <f>H127/I127</f>
+      <c r="J127" s="10">
         <v>130</v>
       </c>
       <c r="K127" s="4">
@@ -6128,8 +5977,7 @@
       <c r="I128" s="5">
         <v>10</v>
       </c>
-      <c r="J128" s="11">
-        <f>H128/I128</f>
+      <c r="J128" s="10">
         <v>160</v>
       </c>
       <c r="K128" s="4">
@@ -6158,8 +6006,7 @@
       <c r="I129" s="3">
         <v>12</v>
       </c>
-      <c r="J129" s="11">
-        <f>H129/I129</f>
+      <c r="J129" s="10">
         <v>105.83333333333333</v>
       </c>
       <c r="K129" s="4">
@@ -6181,7 +6028,7 @@
         <v>140</v>
       </c>
       <c r="F130" s="3"/>
-      <c r="G130" s="9" t="s">
+      <c r="G130" s="8" t="s">
         <v>141</v>
       </c>
       <c r="H130" s="4">
@@ -6190,8 +6037,7 @@
       <c r="I130" s="5">
         <v>100</v>
       </c>
-      <c r="J130" s="11">
-        <f>H130/I130</f>
+      <c r="J130" s="10">
         <v>3.7</v>
       </c>
       <c r="K130" s="4">
@@ -6203,10 +6049,10 @@
       <c r="B131" s="3" t="s">
         <v>295</v>
       </c>
-      <c r="C131" s="9" t="s">
+      <c r="C131" s="8" t="s">
         <v>427</v>
       </c>
-      <c r="D131" s="9" t="s">
+      <c r="D131" s="8" t="s">
         <v>427</v>
       </c>
       <c r="E131" s="3" t="s">
@@ -6220,8 +6066,7 @@
       <c r="I131" s="3">
         <v>5</v>
       </c>
-      <c r="J131" s="11">
-        <f>H131/I131</f>
+      <c r="J131" s="10">
         <v>30</v>
       </c>
       <c r="K131" s="4">
@@ -6233,10 +6078,10 @@
       <c r="B132" s="3" t="s">
         <v>296</v>
       </c>
-      <c r="C132" s="9" t="s">
+      <c r="C132" s="8" t="s">
         <v>427</v>
       </c>
-      <c r="D132" s="9" t="s">
+      <c r="D132" s="8" t="s">
         <v>427</v>
       </c>
       <c r="E132" s="3" t="s">
@@ -6250,8 +6095,7 @@
       <c r="I132" s="3">
         <v>5</v>
       </c>
-      <c r="J132" s="11">
-        <f>H132/I132</f>
+      <c r="J132" s="10">
         <v>10</v>
       </c>
       <c r="K132" s="4">
@@ -6263,10 +6107,10 @@
       <c r="B133" s="3" t="s">
         <v>297</v>
       </c>
-      <c r="C133" s="9" t="s">
+      <c r="C133" s="8" t="s">
         <v>427</v>
       </c>
-      <c r="D133" s="9" t="s">
+      <c r="D133" s="8" t="s">
         <v>427</v>
       </c>
       <c r="E133" s="3" t="s">
@@ -6280,8 +6124,7 @@
       <c r="I133" s="3">
         <v>5</v>
       </c>
-      <c r="J133" s="11">
-        <f>H133/I133</f>
+      <c r="J133" s="10">
         <v>10</v>
       </c>
       <c r="K133" s="4">
@@ -6293,10 +6136,10 @@
       <c r="B134" s="3" t="s">
         <v>307</v>
       </c>
-      <c r="C134" s="9" t="s">
+      <c r="C134" s="8" t="s">
         <v>431</v>
       </c>
-      <c r="D134" s="9" t="s">
+      <c r="D134" s="8" t="s">
         <v>407</v>
       </c>
       <c r="E134" s="3" t="s">
@@ -6310,10 +6153,7 @@
         <v>700</v>
       </c>
       <c r="I134" s="3"/>
-      <c r="J134" s="11" t="e">
-        <f>H134/I134</f>
-        <v>#DIV/0!</v>
-      </c>
+      <c r="J134" s="10"/>
       <c r="K134" s="4">
         <v>340</v>
       </c>
@@ -6340,8 +6180,7 @@
       <c r="I135" s="3">
         <v>12</v>
       </c>
-      <c r="J135" s="11">
-        <f>H135/I135</f>
+      <c r="J135" s="10">
         <v>13.75</v>
       </c>
       <c r="K135" s="4">
@@ -6370,8 +6209,7 @@
       <c r="I136" s="3">
         <v>12</v>
       </c>
-      <c r="J136" s="11">
-        <f>H136/I136</f>
+      <c r="J136" s="10">
         <v>105.83333333333333</v>
       </c>
       <c r="K136" s="4">
@@ -6404,8 +6242,7 @@
       <c r="I137" s="3">
         <v>36</v>
       </c>
-      <c r="J137" s="11">
-        <f>H137/I137</f>
+      <c r="J137" s="10">
         <v>19.083333333333332</v>
       </c>
       <c r="K137" s="4">
@@ -6417,10 +6254,10 @@
       <c r="B138" s="3" t="s">
         <v>308</v>
       </c>
-      <c r="C138" s="9" t="s">
+      <c r="C138" s="8" t="s">
         <v>422</v>
       </c>
-      <c r="D138" s="9" t="s">
+      <c r="D138" s="8" t="s">
         <v>422</v>
       </c>
       <c r="E138" s="3" t="s">
@@ -6434,10 +6271,7 @@
         <v>650</v>
       </c>
       <c r="I138" s="3"/>
-      <c r="J138" s="11" t="e">
-        <f>H138/I138</f>
-        <v>#DIV/0!</v>
-      </c>
+      <c r="J138" s="10"/>
       <c r="K138" s="4">
         <v>340</v>
       </c>
@@ -6447,10 +6281,10 @@
       <c r="B139" s="3" t="s">
         <v>309</v>
       </c>
-      <c r="C139" s="9" t="s">
+      <c r="C139" s="8" t="s">
         <v>422</v>
       </c>
-      <c r="D139" s="9" t="s">
+      <c r="D139" s="8" t="s">
         <v>422</v>
       </c>
       <c r="E139" s="3" t="s">
@@ -6464,10 +6298,7 @@
         <v>600</v>
       </c>
       <c r="I139" s="3"/>
-      <c r="J139" s="11" t="e">
-        <f>H139/I139</f>
-        <v>#DIV/0!</v>
-      </c>
+      <c r="J139" s="10"/>
       <c r="K139" s="4">
         <v>340</v>
       </c>
@@ -6477,10 +6308,10 @@
       <c r="B140" s="3" t="s">
         <v>310</v>
       </c>
-      <c r="C140" s="9" t="s">
+      <c r="C140" s="8" t="s">
         <v>422</v>
       </c>
-      <c r="D140" s="9" t="s">
+      <c r="D140" s="8" t="s">
         <v>310</v>
       </c>
       <c r="E140" s="3" t="s">
@@ -6493,11 +6324,8 @@
       <c r="H140" s="4">
         <v>600</v>
       </c>
-      <c r="I140" s="9"/>
-      <c r="J140" s="11" t="e">
-        <f>H140/I140</f>
-        <v>#DIV/0!</v>
-      </c>
+      <c r="I140" s="8"/>
+      <c r="J140" s="10"/>
       <c r="K140" s="4">
         <v>340</v>
       </c>
@@ -6507,10 +6335,10 @@
       <c r="B141" s="3" t="s">
         <v>311</v>
       </c>
-      <c r="C141" s="9" t="s">
+      <c r="C141" s="8" t="s">
         <v>422</v>
       </c>
-      <c r="D141" s="9" t="s">
+      <c r="D141" s="8" t="s">
         <v>311</v>
       </c>
       <c r="E141" s="3" t="s">
@@ -6524,10 +6352,7 @@
         <v>600</v>
       </c>
       <c r="I141" s="3"/>
-      <c r="J141" s="11" t="e">
-        <f>H141/I141</f>
-        <v>#DIV/0!</v>
-      </c>
+      <c r="J141" s="10"/>
       <c r="K141" s="4">
         <v>340</v>
       </c>
@@ -6556,8 +6381,7 @@
       <c r="I142" s="5">
         <v>6</v>
       </c>
-      <c r="J142" s="11">
-        <f>H142/I142</f>
+      <c r="J142" s="10">
         <v>105</v>
       </c>
       <c r="K142" s="4">
@@ -6588,8 +6412,7 @@
       <c r="I143" s="5">
         <v>6</v>
       </c>
-      <c r="J143" s="11">
-        <f>H143/I143</f>
+      <c r="J143" s="10">
         <v>65</v>
       </c>
       <c r="K143" s="4">
@@ -6624,8 +6447,7 @@
       <c r="I144" s="5">
         <v>50</v>
       </c>
-      <c r="J144" s="11">
-        <f>H144/I144</f>
+      <c r="J144" s="10">
         <v>6.8</v>
       </c>
       <c r="K144" s="4">
@@ -6658,8 +6480,7 @@
       <c r="I145" s="5">
         <v>50</v>
       </c>
-      <c r="J145" s="11">
-        <f>H145/I145</f>
+      <c r="J145" s="10">
         <v>6.8</v>
       </c>
       <c r="K145" s="4">
@@ -6690,8 +6511,7 @@
       <c r="I146" s="5">
         <v>50</v>
       </c>
-      <c r="J146" s="11">
-        <f>H146/I146</f>
+      <c r="J146" s="10">
         <v>6.8</v>
       </c>
       <c r="K146" s="4">
@@ -6715,7 +6535,7 @@
       <c r="F147" s="7" t="s">
         <v>135</v>
       </c>
-      <c r="G147" s="9" t="s">
+      <c r="G147" s="8" t="s">
         <v>435</v>
       </c>
       <c r="H147" s="4">
@@ -6724,8 +6544,7 @@
       <c r="I147" s="5">
         <v>50</v>
       </c>
-      <c r="J147" s="11">
-        <f>H147/I147</f>
+      <c r="J147" s="10">
         <v>20</v>
       </c>
       <c r="K147" s="4">
@@ -6758,8 +6577,7 @@
       <c r="I148" s="5">
         <v>50</v>
       </c>
-      <c r="J148" s="11">
-        <f>H148/I148</f>
+      <c r="J148" s="10">
         <v>7</v>
       </c>
       <c r="K148" s="4">
@@ -6774,10 +6592,10 @@
       <c r="C149" s="3" t="s">
         <v>363</v>
       </c>
-      <c r="D149" s="9" t="s">
+      <c r="D149" s="8" t="s">
         <v>129</v>
       </c>
-      <c r="E149" s="9" t="s">
+      <c r="E149" s="8" t="s">
         <v>129</v>
       </c>
       <c r="F149" s="7" t="s">
@@ -6792,8 +6610,7 @@
       <c r="I149" s="5">
         <v>50</v>
       </c>
-      <c r="J149" s="11">
-        <f>H149/I149</f>
+      <c r="J149" s="10">
         <v>11.4</v>
       </c>
       <c r="K149" s="4">
@@ -6826,8 +6643,7 @@
       <c r="I150" s="5">
         <v>50</v>
       </c>
-      <c r="J150" s="11">
-        <f>H150/I150</f>
+      <c r="J150" s="10">
         <v>11.4</v>
       </c>
       <c r="K150" s="4">
@@ -6839,10 +6655,10 @@
       <c r="B151" s="3" t="s">
         <v>302</v>
       </c>
-      <c r="C151" s="9" t="s">
+      <c r="C151" s="8" t="s">
         <v>430</v>
       </c>
-      <c r="D151" s="9" t="s">
+      <c r="D151" s="8" t="s">
         <v>302</v>
       </c>
       <c r="E151" s="3" t="s">
@@ -6858,8 +6674,7 @@
       <c r="I151" s="3">
         <v>150</v>
       </c>
-      <c r="J151" s="11">
-        <f>H151/I151</f>
+      <c r="J151" s="10">
         <v>14</v>
       </c>
       <c r="K151" s="4">
@@ -6871,10 +6686,10 @@
       <c r="B152" s="3" t="s">
         <v>303</v>
       </c>
-      <c r="C152" s="9" t="s">
+      <c r="C152" s="8" t="s">
         <v>430</v>
       </c>
-      <c r="D152" s="9" t="s">
+      <c r="D152" s="8" t="s">
         <v>303</v>
       </c>
       <c r="E152" s="3" t="s">
@@ -6890,8 +6705,7 @@
       <c r="I152" s="3">
         <v>150</v>
       </c>
-      <c r="J152" s="11">
-        <f>H152/I152</f>
+      <c r="J152" s="10">
         <v>14</v>
       </c>
       <c r="K152" s="4">
@@ -6903,10 +6717,10 @@
       <c r="B153" s="3" t="s">
         <v>303</v>
       </c>
-      <c r="C153" s="9" t="s">
+      <c r="C153" s="8" t="s">
         <v>430</v>
       </c>
-      <c r="D153" s="9" t="s">
+      <c r="D153" s="8" t="s">
         <v>303</v>
       </c>
       <c r="E153" s="3" t="s">
@@ -6922,8 +6736,7 @@
       <c r="I153" s="3">
         <v>10</v>
       </c>
-      <c r="J153" s="11">
-        <f>H153/I153</f>
+      <c r="J153" s="10">
         <v>500</v>
       </c>
       <c r="K153" s="4">
@@ -6935,10 +6748,10 @@
       <c r="B154" s="3" t="s">
         <v>303</v>
       </c>
-      <c r="C154" s="9" t="s">
+      <c r="C154" s="8" t="s">
         <v>430</v>
       </c>
-      <c r="D154" s="9" t="s">
+      <c r="D154" s="8" t="s">
         <v>303</v>
       </c>
       <c r="E154" s="3" t="s">
@@ -6954,8 +6767,7 @@
       <c r="I154" s="3">
         <v>10</v>
       </c>
-      <c r="J154" s="11">
-        <f>H154/I154</f>
+      <c r="J154" s="10">
         <v>500</v>
       </c>
       <c r="K154" s="4">
@@ -6967,10 +6779,10 @@
       <c r="B155" s="3" t="s">
         <v>303</v>
       </c>
-      <c r="C155" s="9" t="s">
+      <c r="C155" s="8" t="s">
         <v>430</v>
       </c>
-      <c r="D155" s="9" t="s">
+      <c r="D155" s="8" t="s">
         <v>303</v>
       </c>
       <c r="E155" s="3" t="s">
@@ -6986,8 +6798,7 @@
       <c r="I155" s="3">
         <v>10</v>
       </c>
-      <c r="J155" s="11">
-        <f>H155/I155</f>
+      <c r="J155" s="10">
         <v>500</v>
       </c>
       <c r="K155" s="4">
@@ -6999,13 +6810,13 @@
       <c r="B156" s="3" t="s">
         <v>198</v>
       </c>
-      <c r="C156" s="9" t="s">
+      <c r="C156" s="8" t="s">
         <v>438</v>
       </c>
-      <c r="D156" s="9" t="s">
+      <c r="D156" s="8" t="s">
         <v>198</v>
       </c>
-      <c r="E156" s="9" t="s">
+      <c r="E156" s="8" t="s">
         <v>198</v>
       </c>
       <c r="F156" s="3"/>
@@ -7016,8 +6827,7 @@
       <c r="I156" s="3">
         <v>12</v>
       </c>
-      <c r="J156" s="11">
-        <f>H156/I156</f>
+      <c r="J156" s="10">
         <v>47.5</v>
       </c>
       <c r="K156" s="4">
@@ -7048,8 +6858,7 @@
       <c r="I157" s="3">
         <v>50</v>
       </c>
-      <c r="J157" s="11">
-        <f>H157/I157</f>
+      <c r="J157" s="10">
         <v>7.6</v>
       </c>
       <c r="K157" s="4">
@@ -7061,13 +6870,13 @@
       <c r="B158" s="3" t="s">
         <v>270</v>
       </c>
-      <c r="C158" s="9" t="s">
+      <c r="C158" s="8" t="s">
         <v>419</v>
       </c>
-      <c r="D158" s="9" t="s">
+      <c r="D158" s="8" t="s">
         <v>270</v>
       </c>
-      <c r="E158" s="9" t="s">
+      <c r="E158" s="8" t="s">
         <v>420</v>
       </c>
       <c r="F158" s="7" t="s">
@@ -7082,8 +6891,7 @@
       <c r="I158" s="3">
         <v>10</v>
       </c>
-      <c r="J158" s="11">
-        <f>H158/I158</f>
+      <c r="J158" s="10">
         <v>30</v>
       </c>
       <c r="K158" s="4">
@@ -7098,10 +6906,10 @@
       <c r="C159" s="3" t="s">
         <v>142</v>
       </c>
-      <c r="D159" s="9" t="s">
+      <c r="D159" s="8" t="s">
         <v>142</v>
       </c>
-      <c r="E159" s="9" t="s">
+      <c r="E159" s="8" t="s">
         <v>142</v>
       </c>
       <c r="F159" s="3"/>
@@ -7112,8 +6920,7 @@
       <c r="I159" s="3">
         <v>50</v>
       </c>
-      <c r="J159" s="11">
-        <f>H159/I159</f>
+      <c r="J159" s="10">
         <v>8.6</v>
       </c>
       <c r="K159" s="4">
@@ -7144,8 +6951,7 @@
       <c r="I160" s="3">
         <v>40</v>
       </c>
-      <c r="J160" s="11">
-        <f>H160/I160</f>
+      <c r="J160" s="10">
         <v>2.875</v>
       </c>
       <c r="K160" s="4">
@@ -7160,10 +6966,10 @@
       <c r="C161" s="3" t="s">
         <v>410</v>
       </c>
-      <c r="D161" s="9" t="s">
+      <c r="D161" s="8" t="s">
         <v>417</v>
       </c>
-      <c r="E161" s="9" t="s">
+      <c r="E161" s="8" t="s">
         <v>396</v>
       </c>
       <c r="F161" s="7" t="s">
@@ -7178,8 +6984,7 @@
       <c r="I161" s="3">
         <v>10</v>
       </c>
-      <c r="J161" s="11">
-        <f>H161/I161</f>
+      <c r="J161" s="10">
         <v>145</v>
       </c>
       <c r="K161" s="4">
@@ -7194,10 +6999,10 @@
       <c r="C162" s="3" t="s">
         <v>410</v>
       </c>
-      <c r="D162" s="9" t="s">
+      <c r="D162" s="8" t="s">
         <v>417</v>
       </c>
-      <c r="E162" s="9" t="s">
+      <c r="E162" s="8" t="s">
         <v>396</v>
       </c>
       <c r="F162" s="3"/>
@@ -7210,8 +7015,7 @@
       <c r="I162" s="3">
         <v>5</v>
       </c>
-      <c r="J162" s="11">
-        <f>H162/I162</f>
+      <c r="J162" s="10">
         <v>29</v>
       </c>
       <c r="K162" s="4">
@@ -7226,10 +7030,10 @@
       <c r="C163" s="3" t="s">
         <v>410</v>
       </c>
-      <c r="D163" s="9" t="s">
+      <c r="D163" s="8" t="s">
         <v>417</v>
       </c>
-      <c r="E163" s="9" t="s">
+      <c r="E163" s="8" t="s">
         <v>396</v>
       </c>
       <c r="F163" s="3"/>
@@ -7242,8 +7046,7 @@
       <c r="I163" s="3">
         <v>6</v>
       </c>
-      <c r="J163" s="11">
-        <f>H163/I163</f>
+      <c r="J163" s="10">
         <v>24.166666666666668</v>
       </c>
       <c r="K163" s="4">
@@ -7258,7 +7061,7 @@
       <c r="C164" s="3" t="s">
         <v>410</v>
       </c>
-      <c r="D164" s="9" t="s">
+      <c r="D164" s="8" t="s">
         <v>417</v>
       </c>
       <c r="E164" s="3" t="s">
@@ -7276,8 +7079,7 @@
       <c r="I164" s="3">
         <v>12</v>
       </c>
-      <c r="J164" s="11">
-        <f>H164/I164</f>
+      <c r="J164" s="10">
         <v>12.083333333333334</v>
       </c>
       <c r="K164" s="4">
@@ -7292,7 +7094,7 @@
       <c r="C165" s="3" t="s">
         <v>410</v>
       </c>
-      <c r="D165" s="9" t="s">
+      <c r="D165" s="8" t="s">
         <v>417</v>
       </c>
       <c r="E165" s="3" t="s">
@@ -7310,8 +7112,7 @@
       <c r="I165" s="3">
         <v>12</v>
       </c>
-      <c r="J165" s="11">
-        <f>H165/I165</f>
+      <c r="J165" s="10">
         <v>12.083333333333334</v>
       </c>
       <c r="K165" s="4">
@@ -7326,10 +7127,10 @@
       <c r="C166" s="3" t="s">
         <v>410</v>
       </c>
-      <c r="D166" s="9" t="s">
+      <c r="D166" s="8" t="s">
         <v>418</v>
       </c>
-      <c r="E166" s="9" t="s">
+      <c r="E166" s="8" t="s">
         <v>399</v>
       </c>
       <c r="F166" s="7" t="s">
@@ -7344,8 +7145,7 @@
       <c r="I166" s="3">
         <v>6</v>
       </c>
-      <c r="J166" s="11">
-        <f>H166/I166</f>
+      <c r="J166" s="10">
         <v>15.5</v>
       </c>
       <c r="K166" s="4">
@@ -7360,10 +7160,10 @@
       <c r="C167" s="3" t="s">
         <v>410</v>
       </c>
-      <c r="D167" s="9" t="s">
+      <c r="D167" s="8" t="s">
         <v>418</v>
       </c>
-      <c r="E167" s="9" t="s">
+      <c r="E167" s="8" t="s">
         <v>399</v>
       </c>
       <c r="F167" s="7" t="s">
@@ -7378,8 +7178,7 @@
       <c r="I167" s="3">
         <v>6</v>
       </c>
-      <c r="J167" s="11">
-        <f>H167/I167</f>
+      <c r="J167" s="10">
         <v>15.5</v>
       </c>
       <c r="K167" s="4">
@@ -7394,7 +7193,7 @@
       <c r="C168" s="3" t="s">
         <v>410</v>
       </c>
-      <c r="D168" s="9" t="s">
+      <c r="D168" s="8" t="s">
         <v>379</v>
       </c>
       <c r="E168" s="3" t="s">
@@ -7410,8 +7209,7 @@
       <c r="I168" s="3">
         <v>6</v>
       </c>
-      <c r="J168" s="11">
-        <f>H168/I168</f>
+      <c r="J168" s="10">
         <v>15.5</v>
       </c>
       <c r="K168" s="4">
@@ -7426,7 +7224,7 @@
       <c r="C169" s="3" t="s">
         <v>410</v>
       </c>
-      <c r="D169" s="9" t="s">
+      <c r="D169" s="8" t="s">
         <v>379</v>
       </c>
       <c r="E169" s="3" t="s">
@@ -7444,8 +7242,7 @@
       <c r="I169" s="3">
         <v>1</v>
       </c>
-      <c r="J169" s="11">
-        <f>H169/I169</f>
+      <c r="J169" s="10">
         <v>205</v>
       </c>
       <c r="K169" s="4">
@@ -7460,7 +7257,7 @@
       <c r="C170" s="3" t="s">
         <v>410</v>
       </c>
-      <c r="D170" s="9" t="s">
+      <c r="D170" s="8" t="s">
         <v>379</v>
       </c>
       <c r="E170" s="3" t="s">
@@ -7476,8 +7273,7 @@
       <c r="I170" s="3">
         <v>1</v>
       </c>
-      <c r="J170" s="11">
-        <f>H170/I170</f>
+      <c r="J170" s="10">
         <v>200</v>
       </c>
       <c r="K170" s="4">
@@ -7492,7 +7288,7 @@
       <c r="C171" s="3" t="s">
         <v>410</v>
       </c>
-      <c r="D171" s="9" t="s">
+      <c r="D171" s="8" t="s">
         <v>379</v>
       </c>
       <c r="E171" s="3" t="s">
@@ -7510,8 +7306,7 @@
       <c r="I171" s="3">
         <v>12</v>
       </c>
-      <c r="J171" s="11">
-        <f>H171/I171</f>
+      <c r="J171" s="10">
         <v>103.5</v>
       </c>
       <c r="K171" s="4">
@@ -7526,7 +7321,7 @@
       <c r="C172" s="3" t="s">
         <v>410</v>
       </c>
-      <c r="D172" s="9" t="s">
+      <c r="D172" s="8" t="s">
         <v>379</v>
       </c>
       <c r="E172" s="3" t="s">
@@ -7544,8 +7339,7 @@
       <c r="I172" s="3">
         <v>6</v>
       </c>
-      <c r="J172" s="11">
-        <f>H172/I172</f>
+      <c r="J172" s="10">
         <v>145</v>
       </c>
       <c r="K172" s="4">
@@ -7560,7 +7354,7 @@
       <c r="C173" s="3" t="s">
         <v>410</v>
       </c>
-      <c r="D173" s="9" t="s">
+      <c r="D173" s="8" t="s">
         <v>379</v>
       </c>
       <c r="E173" s="3" t="s">
@@ -7576,8 +7370,7 @@
       <c r="I173" s="3">
         <v>12</v>
       </c>
-      <c r="J173" s="11">
-        <f>H173/I173</f>
+      <c r="J173" s="10">
         <v>22.916666666666668</v>
       </c>
       <c r="K173" s="4">
@@ -7592,7 +7385,7 @@
       <c r="C174" s="3" t="s">
         <v>410</v>
       </c>
-      <c r="D174" s="9" t="s">
+      <c r="D174" s="8" t="s">
         <v>379</v>
       </c>
       <c r="E174" s="3" t="s">
@@ -7608,8 +7401,7 @@
       <c r="I174" s="3">
         <v>12</v>
       </c>
-      <c r="J174" s="11">
-        <f>H174/I174</f>
+      <c r="J174" s="10">
         <v>8.0833333333333339</v>
       </c>
       <c r="K174" s="4">
@@ -7624,7 +7416,7 @@
       <c r="C175" s="3" t="s">
         <v>410</v>
       </c>
-      <c r="D175" s="9" t="s">
+      <c r="D175" s="8" t="s">
         <v>246</v>
       </c>
       <c r="E175" s="3" t="s">
@@ -7640,8 +7432,7 @@
       <c r="I175" s="3">
         <v>12</v>
       </c>
-      <c r="J175" s="11">
-        <f>H175/I175</f>
+      <c r="J175" s="10">
         <v>408.75</v>
       </c>
       <c r="K175" s="4">
@@ -7656,7 +7447,7 @@
       <c r="C176" s="3" t="s">
         <v>410</v>
       </c>
-      <c r="D176" s="9" t="s">
+      <c r="D176" s="8" t="s">
         <v>246</v>
       </c>
       <c r="E176" s="3" t="s">
@@ -7672,8 +7463,7 @@
       <c r="I176" s="3">
         <v>12</v>
       </c>
-      <c r="J176" s="11">
-        <f>H176/I176</f>
+      <c r="J176" s="10">
         <v>408.75</v>
       </c>
       <c r="K176" s="4">
@@ -7688,7 +7478,7 @@
       <c r="C177" s="3" t="s">
         <v>410</v>
       </c>
-      <c r="D177" s="9" t="s">
+      <c r="D177" s="8" t="s">
         <v>246</v>
       </c>
       <c r="E177" s="3" t="s">
@@ -7704,8 +7494,7 @@
       <c r="I177" s="3">
         <v>12</v>
       </c>
-      <c r="J177" s="11">
-        <f>H177/I177</f>
+      <c r="J177" s="10">
         <v>8.5</v>
       </c>
       <c r="K177" s="4">
@@ -7720,7 +7509,7 @@
       <c r="C178" s="3" t="s">
         <v>410</v>
       </c>
-      <c r="D178" s="9" t="s">
+      <c r="D178" s="8" t="s">
         <v>246</v>
       </c>
       <c r="E178" s="3" t="s">
@@ -7736,8 +7525,7 @@
       <c r="I178" s="3">
         <v>12</v>
       </c>
-      <c r="J178" s="11">
-        <f>H178/I178</f>
+      <c r="J178" s="10">
         <v>8.5</v>
       </c>
       <c r="K178" s="4">
@@ -7752,7 +7540,7 @@
       <c r="C179" s="3" t="s">
         <v>410</v>
       </c>
-      <c r="D179" s="9" t="s">
+      <c r="D179" s="8" t="s">
         <v>246</v>
       </c>
       <c r="E179" s="3" t="s">
@@ -7768,8 +7556,7 @@
       <c r="I179" s="3">
         <v>12</v>
       </c>
-      <c r="J179" s="11">
-        <f>H179/I179</f>
+      <c r="J179" s="10">
         <v>8.5</v>
       </c>
       <c r="K179" s="4">
@@ -7784,7 +7571,7 @@
       <c r="C180" s="3" t="s">
         <v>410</v>
       </c>
-      <c r="D180" s="9" t="s">
+      <c r="D180" s="8" t="s">
         <v>246</v>
       </c>
       <c r="E180" s="3" t="s">
@@ -7800,8 +7587,7 @@
       <c r="I180" s="3">
         <v>12</v>
       </c>
-      <c r="J180" s="11">
-        <f>H180/I180</f>
+      <c r="J180" s="10">
         <v>8.5</v>
       </c>
       <c r="K180" s="4">
@@ -7816,7 +7602,7 @@
       <c r="C181" s="3" t="s">
         <v>410</v>
       </c>
-      <c r="D181" s="9" t="s">
+      <c r="D181" s="8" t="s">
         <v>246</v>
       </c>
       <c r="E181" s="3" t="s">
@@ -7834,8 +7620,7 @@
       <c r="I181" s="3">
         <v>12</v>
       </c>
-      <c r="J181" s="11">
-        <f>H181/I181</f>
+      <c r="J181" s="10">
         <v>38.333333333333336</v>
       </c>
       <c r="K181" s="4">
@@ -7868,8 +7653,7 @@
       <c r="I182" s="3">
         <v>40</v>
       </c>
-      <c r="J182" s="11">
-        <f>H182/I182</f>
+      <c r="J182" s="10">
         <v>18</v>
       </c>
       <c r="K182" s="4">
@@ -7902,8 +7686,7 @@
       <c r="I183" s="3">
         <v>40</v>
       </c>
-      <c r="J183" s="11">
-        <f>H183/I183</f>
+      <c r="J183" s="10">
         <v>18</v>
       </c>
       <c r="K183" s="4">
@@ -7936,8 +7719,7 @@
       <c r="I184" s="3">
         <v>12</v>
       </c>
-      <c r="J184" s="11">
-        <f>H184/I184</f>
+      <c r="J184" s="10">
         <v>7.75</v>
       </c>
       <c r="K184" s="4">
@@ -7968,8 +7750,7 @@
       <c r="I185" s="3">
         <v>12</v>
       </c>
-      <c r="J185" s="11">
-        <f>H185/I185</f>
+      <c r="J185" s="10">
         <v>7.75</v>
       </c>
       <c r="K185" s="4">
@@ -8000,8 +7781,7 @@
       <c r="I186" s="3">
         <v>48</v>
       </c>
-      <c r="J186" s="11">
-        <f>H186/I186</f>
+      <c r="J186" s="10">
         <v>45.833333333333336</v>
       </c>
       <c r="K186" s="4">
@@ -8032,8 +7812,7 @@
       <c r="I187" s="3">
         <v>48</v>
       </c>
-      <c r="J187" s="11">
-        <f>H187/I187</f>
+      <c r="J187" s="10">
         <v>45.833333333333336</v>
       </c>
       <c r="K187" s="4">
@@ -8048,7 +7827,7 @@
       <c r="C188" s="3" t="s">
         <v>383</v>
       </c>
-      <c r="D188" s="9" t="s">
+      <c r="D188" s="8" t="s">
         <v>391</v>
       </c>
       <c r="E188" s="3" t="s">
@@ -8064,8 +7843,7 @@
       <c r="I188" s="3">
         <v>48</v>
       </c>
-      <c r="J188" s="11">
-        <f>H188/I188</f>
+      <c r="J188" s="10">
         <v>45.833333333333336</v>
       </c>
       <c r="K188" s="4">
@@ -8080,7 +7858,7 @@
       <c r="C189" s="3" t="s">
         <v>383</v>
       </c>
-      <c r="D189" s="9" t="s">
+      <c r="D189" s="8" t="s">
         <v>233</v>
       </c>
       <c r="E189" s="3" t="s">
@@ -8096,8 +7874,7 @@
       <c r="I189" s="3">
         <v>48</v>
       </c>
-      <c r="J189" s="11">
-        <f>H189/I189</f>
+      <c r="J189" s="10">
         <v>45.833333333333336</v>
       </c>
       <c r="K189" s="4">
@@ -8130,8 +7907,7 @@
       <c r="I190" s="3">
         <v>40</v>
       </c>
-      <c r="J190" s="11">
-        <f>H190/I190</f>
+      <c r="J190" s="10">
         <v>2.4249999999999998</v>
       </c>
       <c r="K190" s="4">
@@ -8160,8 +7936,7 @@
       <c r="I191" s="3">
         <v>40</v>
       </c>
-      <c r="J191" s="11">
-        <f>H191/I191</f>
+      <c r="J191" s="10">
         <v>2.4249999999999998</v>
       </c>
       <c r="K191" s="4">
@@ -8173,10 +7948,10 @@
       <c r="B192" s="3" t="s">
         <v>289</v>
       </c>
-      <c r="C192" s="9" t="s">
+      <c r="C192" s="8" t="s">
         <v>424</v>
       </c>
-      <c r="D192" s="9" t="s">
+      <c r="D192" s="8" t="s">
         <v>425</v>
       </c>
       <c r="E192" s="3" t="s">
@@ -8194,8 +7969,7 @@
       <c r="I192" s="3">
         <v>12</v>
       </c>
-      <c r="J192" s="11">
-        <f>H192/I192</f>
+      <c r="J192" s="10">
         <v>16.25</v>
       </c>
       <c r="K192" s="4">
@@ -8207,10 +7981,10 @@
       <c r="B193" s="3" t="s">
         <v>289</v>
       </c>
-      <c r="C193" s="9" t="s">
+      <c r="C193" s="8" t="s">
         <v>424</v>
       </c>
-      <c r="D193" s="9" t="s">
+      <c r="D193" s="8" t="s">
         <v>425</v>
       </c>
       <c r="E193" s="3" t="s">
@@ -8228,8 +8002,7 @@
       <c r="I193" s="3">
         <v>12</v>
       </c>
-      <c r="J193" s="11">
-        <f>H193/I193</f>
+      <c r="J193" s="10">
         <v>16.25</v>
       </c>
       <c r="K193" s="4">
@@ -8241,10 +8014,10 @@
       <c r="B194" s="3" t="s">
         <v>294</v>
       </c>
-      <c r="C194" s="9" t="s">
+      <c r="C194" s="8" t="s">
         <v>424</v>
       </c>
-      <c r="D194" s="9" t="s">
+      <c r="D194" s="8" t="s">
         <v>426</v>
       </c>
       <c r="E194" s="3" t="s">
@@ -8258,8 +8031,7 @@
       <c r="I194" s="3">
         <v>12</v>
       </c>
-      <c r="J194" s="11">
-        <f>H194/I194</f>
+      <c r="J194" s="10">
         <v>18.333333333333332</v>
       </c>
       <c r="K194" s="4">
@@ -8271,10 +8043,10 @@
       <c r="B195" s="3" t="s">
         <v>278</v>
       </c>
-      <c r="C195" s="9" t="s">
+      <c r="C195" s="8" t="s">
         <v>278</v>
       </c>
-      <c r="D195" s="9" t="s">
+      <c r="D195" s="8" t="s">
         <v>278</v>
       </c>
       <c r="E195" s="3" t="s">
@@ -8290,8 +8062,7 @@
       <c r="I195" s="3">
         <v>20</v>
       </c>
-      <c r="J195" s="11">
-        <f>H195/I195</f>
+      <c r="J195" s="10">
         <v>7.5</v>
       </c>
       <c r="K195" s="4">
@@ -8322,8 +8093,7 @@
       <c r="I196" s="5">
         <v>25</v>
       </c>
-      <c r="J196" s="11">
-        <f>H196/I196</f>
+      <c r="J196" s="10">
         <v>196.2</v>
       </c>
       <c r="K196" s="4">
@@ -8352,10 +8122,7 @@
         <v>4905</v>
       </c>
       <c r="I197" s="5"/>
-      <c r="J197" s="11" t="e">
-        <f>H197/I197</f>
-        <v>#DIV/0!</v>
-      </c>
+      <c r="J197" s="10"/>
       <c r="K197" s="4">
         <v>120</v>
       </c>
@@ -8382,10 +8149,7 @@
         <v>460</v>
       </c>
       <c r="I198" s="5"/>
-      <c r="J198" s="11" t="e">
-        <f>H198/I198</f>
-        <v>#DIV/0!</v>
-      </c>
+      <c r="J198" s="10"/>
       <c r="K198" s="4">
         <v>60</v>
       </c>
@@ -8412,10 +8176,7 @@
         <v>460</v>
       </c>
       <c r="I199" s="5"/>
-      <c r="J199" s="11" t="e">
-        <f>H199/I199</f>
-        <v>#DIV/0!</v>
-      </c>
+      <c r="J199" s="10"/>
       <c r="K199" s="4">
         <v>60</v>
       </c>
@@ -8446,8 +8207,7 @@
       <c r="I200" s="5">
         <v>10</v>
       </c>
-      <c r="J200" s="11">
-        <f>H200/I200</f>
+      <c r="J200" s="10">
         <v>46</v>
       </c>
       <c r="K200" s="4">
@@ -8476,10 +8236,7 @@
         <v>460</v>
       </c>
       <c r="I201" s="5"/>
-      <c r="J201" s="11" t="e">
-        <f>H201/I201</f>
-        <v>#DIV/0!</v>
-      </c>
+      <c r="J201" s="10"/>
       <c r="K201" s="4">
         <v>260</v>
       </c>
@@ -8508,8 +8265,7 @@
       <c r="I202" s="5">
         <v>3</v>
       </c>
-      <c r="J202" s="11">
-        <f>H202/I202</f>
+      <c r="J202" s="10">
         <v>570</v>
       </c>
       <c r="K202" s="4">
@@ -8540,8 +8296,7 @@
       <c r="I203" s="5">
         <v>4</v>
       </c>
-      <c r="J203" s="11">
-        <f>H203/I203</f>
+      <c r="J203" s="10">
         <v>330</v>
       </c>
       <c r="K203" s="4">
@@ -8572,8 +8327,7 @@
       <c r="I204" s="5">
         <v>5</v>
       </c>
-      <c r="J204" s="11">
-        <f>H204/I204</f>
+      <c r="J204" s="10">
         <v>230</v>
       </c>
       <c r="K204" s="4">
@@ -8602,8 +8356,7 @@
       <c r="I205" s="3">
         <v>107</v>
       </c>
-      <c r="J205" s="11">
-        <f>H205/I205</f>
+      <c r="J205" s="10">
         <v>1.2149532710280373</v>
       </c>
       <c r="K205" s="4">
@@ -8633,8 +8386,7 @@
       <c r="I206" s="3">
         <v>114</v>
       </c>
-      <c r="J206" s="11">
-        <f>H206/I206</f>
+      <c r="J206" s="10">
         <v>1.0263157894736843</v>
       </c>
       <c r="K206" s="4">
@@ -8666,8 +8418,7 @@
       <c r="I207" s="3">
         <v>50</v>
       </c>
-      <c r="J207" s="11">
-        <f>H207/I207</f>
+      <c r="J207" s="10">
         <v>9.1999999999999993</v>
       </c>
       <c r="K207" s="4">
@@ -8698,8 +8449,7 @@
       <c r="I208" s="3">
         <v>50</v>
       </c>
-      <c r="J208" s="11">
-        <f>H208/I208</f>
+      <c r="J208" s="10">
         <v>5</v>
       </c>
       <c r="K208" s="4">
@@ -8730,8 +8480,7 @@
       <c r="I209" s="3">
         <v>50</v>
       </c>
-      <c r="J209" s="11">
-        <f>H209/I209</f>
+      <c r="J209" s="10">
         <v>5</v>
       </c>
       <c r="K209" s="4">
@@ -8760,8 +8509,7 @@
       <c r="I210" s="3">
         <v>84</v>
       </c>
-      <c r="J210" s="11">
-        <f>H210/I210</f>
+      <c r="J210" s="10">
         <v>2.1190476190476191</v>
       </c>
       <c r="K210" s="4">
@@ -8773,10 +8521,10 @@
       <c r="B211" s="3" t="s">
         <v>93</v>
       </c>
-      <c r="C211" s="9" t="s">
+      <c r="C211" s="8" t="s">
         <v>346</v>
       </c>
-      <c r="D211" s="9" t="s">
+      <c r="D211" s="8" t="s">
         <v>345</v>
       </c>
       <c r="E211" s="3" t="s">
@@ -8792,8 +8540,7 @@
       <c r="I211" s="5">
         <v>40</v>
       </c>
-      <c r="J211" s="11">
-        <f>H211/I211</f>
+      <c r="J211" s="10">
         <v>15.75</v>
       </c>
       <c r="K211" s="4">
@@ -8805,10 +8552,10 @@
       <c r="B212" s="3" t="s">
         <v>93</v>
       </c>
-      <c r="C212" s="9" t="s">
+      <c r="C212" s="8" t="s">
         <v>346</v>
       </c>
-      <c r="D212" s="9" t="s">
+      <c r="D212" s="8" t="s">
         <v>345</v>
       </c>
       <c r="E212" s="3" t="s">
@@ -8824,8 +8571,7 @@
       <c r="I212" s="5">
         <v>42</v>
       </c>
-      <c r="J212" s="11">
-        <f>H212/I212</f>
+      <c r="J212" s="10">
         <v>15</v>
       </c>
       <c r="K212" s="4">
@@ -8837,10 +8583,10 @@
       <c r="B213" s="3" t="s">
         <v>93</v>
       </c>
-      <c r="C213" s="9" t="s">
+      <c r="C213" s="8" t="s">
         <v>346</v>
       </c>
-      <c r="D213" s="9" t="s">
+      <c r="D213" s="8" t="s">
         <v>345</v>
       </c>
       <c r="E213" s="3" t="s">
@@ -8856,8 +8602,7 @@
       <c r="I213" s="5">
         <v>42</v>
       </c>
-      <c r="J213" s="11">
-        <f>H213/I213</f>
+      <c r="J213" s="10">
         <v>15</v>
       </c>
       <c r="K213" s="4">
@@ -8869,7 +8614,7 @@
       <c r="B214" s="3" t="s">
         <v>97</v>
       </c>
-      <c r="C214" s="9" t="s">
+      <c r="C214" s="8" t="s">
         <v>346</v>
       </c>
       <c r="D214" s="3" t="s">
@@ -8890,8 +8635,7 @@
       <c r="I214" s="5">
         <v>5</v>
       </c>
-      <c r="J214" s="11">
-        <f>H214/I214</f>
+      <c r="J214" s="10">
         <v>97</v>
       </c>
       <c r="K214" s="4">
@@ -8922,8 +8666,7 @@
       <c r="I215" s="5">
         <v>10</v>
       </c>
-      <c r="J215" s="11">
-        <f>H215/I215</f>
+      <c r="J215" s="10">
         <v>33</v>
       </c>
       <c r="K215" s="4">
@@ -8954,8 +8697,7 @@
       <c r="I216" s="5">
         <v>12</v>
       </c>
-      <c r="J216" s="11">
-        <f>H216/I216</f>
+      <c r="J216" s="10">
         <v>64.166666666666671</v>
       </c>
       <c r="K216" s="4">
@@ -8986,8 +8728,7 @@
       <c r="I217" s="5">
         <v>12</v>
       </c>
-      <c r="J217" s="11">
-        <f>H217/I217</f>
+      <c r="J217" s="10">
         <v>64.166666666666671</v>
       </c>
       <c r="K217" s="4">
@@ -9018,8 +8759,7 @@
       <c r="I218" s="3">
         <v>12</v>
       </c>
-      <c r="J218" s="11">
-        <f>H218/I218</f>
+      <c r="J218" s="10">
         <v>25</v>
       </c>
       <c r="K218" s="4">
@@ -9052,8 +8792,7 @@
       <c r="I219" s="3">
         <v>36</v>
       </c>
-      <c r="J219" s="11">
-        <f>H219/I219</f>
+      <c r="J219" s="10">
         <v>14.583333333333334</v>
       </c>
       <c r="K219" s="4">

--- a/api/media/products/YOGISSHOPDATABASE.xlsx
+++ b/api/media/products/YOGISSHOPDATABASE.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\projects\Ecommerce\api\media\products\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B1E19640-BE44-477C-82A7-DDAA0C48BC2D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{91F418BC-098B-4142-9104-A71C58581F7E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1149" uniqueCount="437">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1149" uniqueCount="442">
   <si>
     <t>ITEM</t>
   </si>
@@ -1334,6 +1334,21 @@
   </si>
   <si>
     <t>Strawberry</t>
+  </si>
+  <si>
+    <t>8g</t>
+  </si>
+  <si>
+    <t>Chicken Flavour Satchet</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Matchbox </t>
+  </si>
+  <si>
+    <t>Matchbox Rhino</t>
+  </si>
+  <si>
+    <t>packet</t>
   </si>
 </sst>
 </file>
@@ -1344,12 +1359,19 @@
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="5">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1418,33 +1440,35 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="43" fontId="2" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -1936,8 +1960,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J235"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="106" zoomScaleNormal="106" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1:D1048576"/>
+    <sheetView tabSelected="1" topLeftCell="A145" zoomScale="106" zoomScaleNormal="106" workbookViewId="0">
+      <selection activeCell="F173" sqref="F173"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
@@ -7378,7 +7402,7 @@
     </row>
     <row r="178" spans="1:10">
       <c r="A178" s="2" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="B178" s="12" t="s">
         <v>154</v>
@@ -7391,7 +7415,7 @@
       </c>
       <c r="E178" s="2"/>
       <c r="F178" s="2" t="s">
-        <v>157</v>
+        <v>441</v>
       </c>
       <c r="G178" s="3">
         <v>250</v>
@@ -7408,7 +7432,7 @@
     </row>
     <row r="179" spans="1:10">
       <c r="A179" s="2" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="B179" s="12" t="s">
         <v>154</v>
@@ -7421,7 +7445,7 @@
       </c>
       <c r="E179" s="2"/>
       <c r="F179" s="2" t="s">
-        <v>156</v>
+        <v>441</v>
       </c>
       <c r="G179" s="3">
         <v>250</v>
@@ -7624,7 +7648,7 @@
     </row>
     <row r="186" spans="1:10">
       <c r="A186" s="2" t="s">
-        <v>169</v>
+        <v>173</v>
       </c>
       <c r="B186" s="12" t="s">
         <v>169</v>
@@ -7639,7 +7663,7 @@
         <v>172</v>
       </c>
       <c r="F186" s="2" t="s">
-        <v>173</v>
+        <v>441</v>
       </c>
       <c r="G186" s="3">
         <v>250</v>
@@ -7656,7 +7680,7 @@
     </row>
     <row r="187" spans="1:10">
       <c r="A187" s="2" t="s">
-        <v>169</v>
+        <v>177</v>
       </c>
       <c r="B187" s="12" t="s">
         <v>169</v>
@@ -7671,7 +7695,7 @@
         <v>176</v>
       </c>
       <c r="F187" s="2" t="s">
-        <v>177</v>
+        <v>441</v>
       </c>
       <c r="G187" s="3">
         <v>250</v>
@@ -7688,7 +7712,7 @@
     </row>
     <row r="188" spans="1:10">
       <c r="A188" s="2" t="s">
-        <v>169</v>
+        <v>175</v>
       </c>
       <c r="B188" s="12" t="s">
         <v>169</v>
@@ -7703,7 +7727,7 @@
         <v>174</v>
       </c>
       <c r="F188" s="2" t="s">
-        <v>175</v>
+        <v>441</v>
       </c>
       <c r="G188" s="3">
         <v>250</v>
@@ -7723,17 +7747,17 @@
         <v>137</v>
       </c>
       <c r="B189" s="12" t="s">
-        <v>137</v>
+        <v>439</v>
       </c>
       <c r="C189" s="12" t="s">
-        <v>137</v>
+        <v>440</v>
       </c>
       <c r="D189" s="12" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="E189" s="2"/>
-      <c r="F189" s="6" t="s">
-        <v>138</v>
+      <c r="F189" s="17" t="s">
+        <v>441</v>
       </c>
       <c r="G189" s="3">
         <v>370</v>
@@ -7788,14 +7812,14 @@
       <c r="C191" s="13" t="s">
         <v>430</v>
       </c>
-      <c r="D191" s="13" t="s">
-        <v>430</v>
+      <c r="D191" s="16" t="s">
+        <v>438</v>
       </c>
       <c r="E191" s="5" t="s">
         <v>198</v>
       </c>
       <c r="F191" s="2" t="s">
-        <v>199</v>
+        <v>437</v>
       </c>
       <c r="G191" s="3">
         <v>115</v>
